--- a/Документация/Профиль НТ .xlsx
+++ b/Документация/Профиль НТ .xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
     <sheet name="Поиск максимума" sheetId="6" r:id="rId2"/>
-    <sheet name="Соответствие" sheetId="4" r:id="rId3"/>
-    <sheet name="SummaryReport" sheetId="5" r:id="rId4"/>
+    <sheet name="Подтверждение максимума" sheetId="7" r:id="rId3"/>
+    <sheet name="Соответствие" sheetId="4" r:id="rId4"/>
+    <sheet name="SummaryReport" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -374,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="102">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -675,6 +676,12 @@
   <si>
     <t>% ошибок</t>
   </si>
+  <si>
+    <t>11739/2944</t>
+  </si>
+  <si>
+    <t>Сумма транзакций</t>
+  </si>
 </sst>
 </file>
 
@@ -684,12 +691,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1173,7 +1188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1547,74 +1562,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1643,22 +1681,22 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1669,12 +1707,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="36" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1687,19 +1725,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1709,14 +1747,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="34" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1728,56 +1766,58 @@
     <xf numFmtId="1" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="36" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="45" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="66" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="94"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="66" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="80" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="80" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="94" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="94" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="80" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="80" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="80" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1790,74 +1830,85 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="94" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="94" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="108"/>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="122">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48"/>
     <cellStyle name="20% — акцент1 3" xfId="68"/>
     <cellStyle name="20% — акцент1 4" xfId="82"/>
     <cellStyle name="20% — акцент1 5" xfId="96"/>
+    <cellStyle name="20% — акцент1 6" xfId="110"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51"/>
     <cellStyle name="20% — акцент2 3" xfId="70"/>
     <cellStyle name="20% — акцент2 4" xfId="84"/>
     <cellStyle name="20% — акцент2 5" xfId="98"/>
+    <cellStyle name="20% — акцент2 6" xfId="112"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54"/>
     <cellStyle name="20% — акцент3 3" xfId="72"/>
     <cellStyle name="20% — акцент3 4" xfId="86"/>
     <cellStyle name="20% — акцент3 5" xfId="100"/>
+    <cellStyle name="20% — акцент3 6" xfId="114"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57"/>
     <cellStyle name="20% — акцент4 3" xfId="74"/>
     <cellStyle name="20% — акцент4 4" xfId="88"/>
     <cellStyle name="20% — акцент4 5" xfId="102"/>
+    <cellStyle name="20% — акцент4 6" xfId="116"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60"/>
     <cellStyle name="20% — акцент5 3" xfId="76"/>
     <cellStyle name="20% — акцент5 4" xfId="90"/>
     <cellStyle name="20% — акцент5 5" xfId="104"/>
+    <cellStyle name="20% — акцент5 6" xfId="118"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63"/>
     <cellStyle name="20% — акцент6 3" xfId="78"/>
     <cellStyle name="20% — акцент6 4" xfId="92"/>
     <cellStyle name="20% — акцент6 5" xfId="106"/>
+    <cellStyle name="20% — акцент6 6" xfId="120"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49"/>
     <cellStyle name="40% — акцент1 3" xfId="69"/>
     <cellStyle name="40% — акцент1 4" xfId="83"/>
     <cellStyle name="40% — акцент1 5" xfId="97"/>
+    <cellStyle name="40% — акцент1 6" xfId="111"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52"/>
     <cellStyle name="40% — акцент2 3" xfId="71"/>
     <cellStyle name="40% — акцент2 4" xfId="85"/>
     <cellStyle name="40% — акцент2 5" xfId="99"/>
+    <cellStyle name="40% — акцент2 6" xfId="113"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55"/>
     <cellStyle name="40% — акцент3 3" xfId="73"/>
     <cellStyle name="40% — акцент3 4" xfId="87"/>
     <cellStyle name="40% — акцент3 5" xfId="101"/>
+    <cellStyle name="40% — акцент3 6" xfId="115"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58"/>
     <cellStyle name="40% — акцент4 3" xfId="75"/>
     <cellStyle name="40% — акцент4 4" xfId="89"/>
     <cellStyle name="40% — акцент4 5" xfId="103"/>
+    <cellStyle name="40% — акцент4 6" xfId="117"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61"/>
     <cellStyle name="40% — акцент5 3" xfId="77"/>
     <cellStyle name="40% — акцент5 4" xfId="91"/>
     <cellStyle name="40% — акцент5 5" xfId="105"/>
+    <cellStyle name="40% — акцент5 6" xfId="119"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64"/>
     <cellStyle name="40% — акцент6 3" xfId="79"/>
     <cellStyle name="40% — акцент6 4" xfId="93"/>
     <cellStyle name="40% — акцент6 5" xfId="107"/>
+    <cellStyle name="40% — акцент6 6" xfId="121"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
@@ -1895,6 +1946,7 @@
     <cellStyle name="Обычный 5" xfId="66"/>
     <cellStyle name="Обычный 6" xfId="80"/>
     <cellStyle name="Обычный 7" xfId="94"/>
+    <cellStyle name="Обычный 8" xfId="108"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
@@ -1902,12 +1954,13 @@
     <cellStyle name="Примечание 4" xfId="67"/>
     <cellStyle name="Примечание 5" xfId="81"/>
     <cellStyle name="Примечание 6" xfId="95"/>
+    <cellStyle name="Примечание 7" xfId="109"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1928,40 +1981,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2335,7 +2354,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K35:L48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2712,7 +2731,7 @@
   <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F33" sqref="F33:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,10 +3965,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="71"/>
+      <c r="B32" s="78"/>
     </row>
     <row r="33" spans="1:12" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
@@ -3999,16 +4018,16 @@
         <v>homePage</v>
       </c>
       <c r="G34" s="38">
-        <f>(C34/3)</f>
-        <v>166.73434105013052</v>
+        <f>(C34/3*3)*4</f>
+        <v>2000.8120926015663</v>
       </c>
       <c r="H34" s="30">
         <f>VLOOKUP(F34,SummaryReport!A:J,8,FALSE)</f>
-        <v>174</v>
+        <v>2037</v>
       </c>
       <c r="I34" s="11">
         <f>1-G34/H34</f>
-        <v>4.1756660631433795E-2</v>
+        <v>1.7765295728244368E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -4032,16 +4051,16 @@
         <v>login</v>
       </c>
       <c r="G35" s="38">
-        <f t="shared" ref="G35:G45" si="10">(C35/3)</f>
-        <v>134.30190861769807</v>
+        <f t="shared" ref="G35:G45" si="10">(C35/3*3)*4</f>
+        <v>1611.6229034123769</v>
       </c>
       <c r="H35" s="30">
         <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
-        <v>139</v>
+        <v>1635</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" ref="I35:I45" si="11">1-G35/H35</f>
-        <v>3.3799218577711732E-2</v>
+        <v>1.4297918402215948E-2</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>20</v>
@@ -4051,7 +4070,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="75" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="25">
@@ -4072,15 +4091,15 @@
       </c>
       <c r="G36" s="38">
         <f t="shared" si="10"/>
-        <v>102.30190861769809</v>
+        <v>1227.6229034123771</v>
       </c>
       <c r="H36" s="30">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
-        <v>106</v>
+        <v>1248</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="11"/>
-        <v>3.4887654550018077E-2</v>
+        <v>1.6327801752902937E-2</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>0</v>
@@ -4111,15 +4130,15 @@
       </c>
       <c r="G37" s="38">
         <f t="shared" si="10"/>
-        <v>89.67032967032965</v>
+        <v>1076.0439560439559</v>
       </c>
       <c r="H37" s="30">
         <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
-        <v>94</v>
+        <v>1093</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="11"/>
-        <v>4.6060322656067521E-2</v>
+        <v>1.5513306455667064E-2</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>9</v>
@@ -4150,15 +4169,15 @@
       </c>
       <c r="G38" s="38">
         <f t="shared" si="10"/>
-        <v>89.67032967032965</v>
+        <v>1076.0439560439559</v>
       </c>
       <c r="H38" s="30">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>94</v>
+        <v>1093</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="11"/>
-        <v>4.6060322656067521E-2</v>
+        <v>1.5513306455667064E-2</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>3</v>
@@ -4189,15 +4208,15 @@
       </c>
       <c r="G39" s="38">
         <f t="shared" si="10"/>
-        <v>55.384615384615387</v>
+        <v>664.61538461538464</v>
       </c>
       <c r="H39" s="30">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>58</v>
+        <v>676</v>
       </c>
       <c r="I39" s="11">
         <f t="shared" si="11"/>
-        <v>4.50928381962864E-2</v>
+        <v>1.6841147018661795E-2</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>44</v>
@@ -4231,15 +4250,15 @@
       </c>
       <c r="G40" s="38">
         <f t="shared" si="10"/>
-        <v>92.016194331983812</v>
+        <v>1104.1943319838058</v>
       </c>
       <c r="H40" s="30">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>95</v>
+        <v>1123</v>
       </c>
       <c r="I40" s="11">
         <f t="shared" si="11"/>
-        <v>3.1408480715959919E-2</v>
+        <v>1.6745919871944959E-2</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>8</v>
@@ -4270,15 +4289,15 @@
       </c>
       <c r="G41" s="38">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="H41" s="30">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="11"/>
-        <v>4.0000000000000036E-2</v>
+        <v>1.0309278350515427E-2</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>45</v>
@@ -4309,15 +4328,15 @@
       </c>
       <c r="G42" s="38">
         <f t="shared" si="10"/>
-        <v>110.30190861769809</v>
+        <v>1323.6229034123771</v>
       </c>
       <c r="H42" s="30">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>115</v>
+        <v>1343</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" si="11"/>
-        <v>4.0852968541755796E-2</v>
+        <v>1.442821786122328E-2</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>1</v>
@@ -4348,15 +4367,15 @@
       </c>
       <c r="G43" s="38">
         <f t="shared" si="10"/>
-        <v>32.432432432432435</v>
+        <v>389.18918918918922</v>
       </c>
       <c r="H43" s="30">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="I43" s="11">
         <f t="shared" si="11"/>
-        <v>4.610492845786951E-2</v>
+        <v>2.7027027027026973E-2</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>10</v>
@@ -4387,15 +4406,15 @@
       </c>
       <c r="G44" s="38">
         <f t="shared" si="10"/>
-        <v>32.432432432432435</v>
+        <v>389.18918918918922</v>
       </c>
       <c r="H44" s="30">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="I44" s="54">
         <f t="shared" si="11"/>
-        <v>4.610492845786951E-2</v>
+        <v>2.7027027027026973E-2</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>47</v>
@@ -4426,15 +4445,15 @@
       </c>
       <c r="G45" s="38">
         <f t="shared" si="10"/>
-        <v>34.054054054054056</v>
+        <v>408.64864864864865</v>
       </c>
       <c r="H45" s="30">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="I45" s="54">
         <f t="shared" si="11"/>
-        <v>-1.5898251192369983E-3</v>
+        <v>-2.1621621621621623E-2</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>46</v>
@@ -4834,10 +4853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,25 +4868,26 @@
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
       <c r="R1" t="s">
         <v>22</v>
       </c>
@@ -4885,44 +4905,47 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="71" t="s">
         <v>99</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>101</v>
       </c>
       <c r="R2" t="s">
         <v>5</v>
@@ -4942,34 +4965,34 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="72">
         <v>1.28</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="72">
         <v>2.38</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="72">
         <v>3.536</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="72">
         <v>0.69199999999999995</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="72">
         <v>3.238</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="69">
         <v>174</v>
       </c>
-      <c r="I3" s="73">
-        <v>0</v>
-      </c>
-      <c r="J3" s="73">
+      <c r="I3" s="69">
+        <v>0</v>
+      </c>
+      <c r="J3" s="69">
         <v>0</v>
       </c>
       <c r="K3" s="59"/>
@@ -4993,34 +5016,34 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="72">
         <v>0.20899999999999999</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="72">
         <v>0.23300000000000001</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="72">
         <v>0.32</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="72">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="72">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="69">
         <v>94</v>
       </c>
-      <c r="I4" s="73">
-        <v>0</v>
-      </c>
-      <c r="J4" s="73">
+      <c r="I4" s="69">
+        <v>0</v>
+      </c>
+      <c r="J4" s="69">
         <v>0</v>
       </c>
       <c r="K4" s="59"/>
@@ -5029,7 +5052,7 @@
         <v>4.6060322656067521E-2</v>
       </c>
       <c r="M4" s="59">
-        <f t="shared" ref="M4:M67" si="1">(H4+I4+J4)/100*I4</f>
+        <f t="shared" ref="M4:M63" si="1">(H4+I4+J4)/100*I4</f>
         <v>0</v>
       </c>
       <c r="R4" t="s">
@@ -5050,34 +5073,34 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="72">
         <v>0.222</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="72">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="72">
         <v>0.498</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="72">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="72">
         <v>0.42699999999999999</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="69">
         <v>25</v>
       </c>
-      <c r="I5" s="73">
-        <v>0</v>
-      </c>
-      <c r="J5" s="73">
+      <c r="I5" s="69">
+        <v>0</v>
+      </c>
+      <c r="J5" s="69">
         <v>0</v>
       </c>
       <c r="K5" s="59"/>
@@ -5107,34 +5130,34 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="72">
         <v>0.21</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="72">
         <v>0.246</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="72">
         <v>0.378</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="72">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="72">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="69">
         <v>94</v>
       </c>
-      <c r="I6" s="73">
-        <v>0</v>
-      </c>
-      <c r="J6" s="73">
+      <c r="I6" s="69">
+        <v>0</v>
+      </c>
+      <c r="J6" s="69">
         <v>0</v>
       </c>
       <c r="K6" s="59"/>
@@ -5164,34 +5187,34 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="72">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="72">
         <v>0.495</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="72">
         <v>0.67200000000000004</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="72">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="72">
         <v>0.56899999999999995</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="69">
         <v>106</v>
       </c>
-      <c r="I7" s="73">
-        <v>0</v>
-      </c>
-      <c r="J7" s="73">
+      <c r="I7" s="69">
+        <v>0</v>
+      </c>
+      <c r="J7" s="69">
         <v>0</v>
       </c>
       <c r="K7" s="59"/>
@@ -5222,34 +5245,34 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="72">
         <v>0.433</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="72">
         <v>0.48799999999999999</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="72">
         <v>0.77100000000000002</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="72">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="72">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="69">
         <v>95</v>
       </c>
-      <c r="I8" s="73">
-        <v>0</v>
-      </c>
-      <c r="J8" s="73">
+      <c r="I8" s="69">
+        <v>0</v>
+      </c>
+      <c r="J8" s="69">
         <v>0</v>
       </c>
       <c r="K8" s="59"/>
@@ -5263,34 +5286,34 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="72">
         <v>0.218</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="72">
         <v>0.245</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="72">
         <v>0.33500000000000002</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="72">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="72">
         <v>0.32</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="69">
         <v>34</v>
       </c>
-      <c r="I9" s="73">
-        <v>0</v>
-      </c>
-      <c r="J9" s="73">
+      <c r="I9" s="69">
+        <v>0</v>
+      </c>
+      <c r="J9" s="69">
         <v>0</v>
       </c>
       <c r="K9" s="59"/>
@@ -5304,34 +5327,34 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="72">
         <v>0.41399999999999998</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="72">
         <v>0.504</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="72">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="72">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="72">
         <v>0.61499999999999999</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="69">
         <v>174</v>
       </c>
-      <c r="I10" s="73">
-        <v>0</v>
-      </c>
-      <c r="J10" s="73">
+      <c r="I10" s="69">
+        <v>0</v>
+      </c>
+      <c r="J10" s="69">
         <v>0</v>
       </c>
       <c r="K10" s="59"/>
@@ -5357,34 +5380,34 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="72">
         <v>0.437</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="72">
         <v>0.52</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="72">
         <v>0.69899999999999995</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="72">
         <v>6.2E-2</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="72">
         <v>0.61</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="69">
         <v>139</v>
       </c>
-      <c r="I11" s="73">
-        <v>0</v>
-      </c>
-      <c r="J11" s="73">
+      <c r="I11" s="69">
+        <v>0</v>
+      </c>
+      <c r="J11" s="69">
         <v>0</v>
       </c>
       <c r="K11" s="59"/>
@@ -5410,34 +5433,34 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="72">
         <v>0.41299999999999998</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="72">
         <v>0.48</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="72">
         <v>0.68500000000000005</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="72">
         <v>6.2E-2</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="72">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="69">
         <v>115</v>
       </c>
-      <c r="I12" s="73">
-        <v>0</v>
-      </c>
-      <c r="J12" s="73">
+      <c r="I12" s="69">
+        <v>0</v>
+      </c>
+      <c r="J12" s="69">
         <v>0</v>
       </c>
       <c r="K12" s="59"/>
@@ -5463,34 +5486,34 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="72">
         <v>0.21099999999999999</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="72">
         <v>0.245</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="72">
         <v>0.32400000000000001</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="72">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="72">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="69">
         <v>58</v>
       </c>
-      <c r="I13" s="73">
-        <v>0</v>
-      </c>
-      <c r="J13" s="73">
+      <c r="I13" s="69">
+        <v>0</v>
+      </c>
+      <c r="J13" s="69">
         <v>0</v>
       </c>
       <c r="K13" s="59"/>
@@ -5516,34 +5539,34 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="72">
         <v>0.41499999999999998</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="72">
         <v>0.46800000000000003</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="72">
         <v>0.59799999999999998</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="72">
         <v>0.06</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="72">
         <v>0.56799999999999995</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="69">
         <v>34</v>
       </c>
-      <c r="I14" s="73">
-        <v>0</v>
-      </c>
-      <c r="J14" s="73">
+      <c r="I14" s="69">
+        <v>0</v>
+      </c>
+      <c r="J14" s="69">
         <v>0</v>
       </c>
       <c r="K14" s="59"/>
@@ -5569,34 +5592,34 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="72">
         <v>0.21099999999999999</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="72">
         <v>0.223</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="72">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="72">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="72">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="69">
         <v>34</v>
       </c>
-      <c r="I15" s="73">
-        <v>0</v>
-      </c>
-      <c r="J15" s="73">
+      <c r="I15" s="69">
+        <v>0</v>
+      </c>
+      <c r="J15" s="69">
         <v>0</v>
       </c>
       <c r="K15" s="59"/>
@@ -5622,38 +5645,38 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="72">
         <v>2.9249999999999998</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="72">
         <v>3.1720000000000002</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="72">
         <v>3.536</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="72">
         <v>0.14699999999999999</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="72">
         <v>3.4089999999999998</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="69">
         <v>58</v>
       </c>
-      <c r="I16" s="73">
-        <v>0</v>
-      </c>
-      <c r="J16" s="73">
+      <c r="I16" s="69">
+        <v>0</v>
+      </c>
+      <c r="J16" s="69">
         <v>0</v>
       </c>
       <c r="K16" s="59" t="str">
-        <f>IF(G16&gt;V2*100,"ДА","НЕТ")</f>
+        <f t="shared" ref="K16:K21" si="3">IF(G16&gt;V2*100,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
       <c r="L16" s="59"/>
@@ -5675,38 +5698,38 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="72">
         <v>1.629</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="72">
         <v>1.8839999999999999</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="72">
         <v>2.0990000000000002</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="72">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="72">
         <v>2.0670000000000002</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="69">
         <v>25</v>
       </c>
-      <c r="I17" s="73">
-        <v>0</v>
-      </c>
-      <c r="J17" s="73">
+      <c r="I17" s="69">
+        <v>0</v>
+      </c>
+      <c r="J17" s="69">
         <v>0</v>
       </c>
       <c r="K17" s="59" t="str">
-        <f>IF(G17&gt;V3*100,"ДА","НЕТ")</f>
+        <f t="shared" si="3"/>
         <v>НЕТ</v>
       </c>
       <c r="L17" s="59"/>
@@ -5728,38 +5751,38 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="72">
         <v>1.292</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="72">
         <v>1.444</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="72">
         <v>1.8859999999999999</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="72">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="72">
         <v>1.665</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="69">
         <v>34</v>
       </c>
-      <c r="I18" s="73">
-        <v>0</v>
-      </c>
-      <c r="J18" s="73">
+      <c r="I18" s="69">
+        <v>0</v>
+      </c>
+      <c r="J18" s="69">
         <v>0</v>
       </c>
       <c r="K18" s="59" t="str">
-        <f>IF(G18&gt;V4*100,"ДА","НЕТ")</f>
+        <f t="shared" si="3"/>
         <v>НЕТ</v>
       </c>
       <c r="L18" s="59"/>
@@ -5781,38 +5804,38 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="72">
         <v>1.28</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="72">
         <v>1.4750000000000001</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="72">
         <v>1.5780000000000001</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="72">
         <v>0.114</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="72">
         <v>1.5780000000000001</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="69">
         <v>8</v>
       </c>
-      <c r="I19" s="73">
-        <v>0</v>
-      </c>
-      <c r="J19" s="73">
+      <c r="I19" s="69">
+        <v>0</v>
+      </c>
+      <c r="J19" s="69">
         <v>0</v>
       </c>
       <c r="K19" s="59" t="str">
-        <f>IF(G19&gt;V5*100,"ДА","НЕТ")</f>
+        <f t="shared" si="3"/>
         <v>НЕТ</v>
       </c>
       <c r="L19" s="59"/>
@@ -5834,38 +5857,38 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="72">
         <v>2.2349999999999999</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="72">
         <v>2.5019999999999998</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="72">
         <v>2.806</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="72">
         <v>0.14099999999999999</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="72">
         <v>2.722</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="69">
         <v>36</v>
       </c>
-      <c r="I20" s="73">
-        <v>0</v>
-      </c>
-      <c r="J20" s="73">
+      <c r="I20" s="69">
+        <v>0</v>
+      </c>
+      <c r="J20" s="69">
         <v>0</v>
       </c>
       <c r="K20" s="59" t="str">
-        <f>IF(G20&gt;V6*100,"ДА","НЕТ")</f>
+        <f t="shared" si="3"/>
         <v>НЕТ</v>
       </c>
       <c r="L20" s="59"/>
@@ -5873,6 +5896,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O20">
+        <f>SUM(H4:H21)</f>
+        <v>1176</v>
+      </c>
       <c r="Q20" t="s">
         <v>81</v>
       </c>
@@ -5887,38 +5914,38 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="72">
         <v>2.2229999999999999</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="72">
         <v>2.4689999999999999</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="72">
         <v>2.794</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="72">
         <v>0.185</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="72">
         <v>2.74</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="69">
         <v>13</v>
       </c>
-      <c r="I21" s="73">
-        <v>0</v>
-      </c>
-      <c r="J21" s="73">
+      <c r="I21" s="69">
+        <v>0</v>
+      </c>
+      <c r="J21" s="69">
         <v>0</v>
       </c>
       <c r="K21" s="59" t="str">
-        <f>IF(G21&gt;V7*100,"ДА","НЕТ")</f>
+        <f t="shared" si="3"/>
         <v>НЕТ</v>
       </c>
       <c r="L21" s="59"/>
@@ -5940,20 +5967,20 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
       <c r="Q22" t="s">
         <v>91</v>
       </c>
@@ -5968,75 +5995,78 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="73" t="s">
+      <c r="J23" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="75" t="s">
+      <c r="K23" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="M23" s="75" t="s">
+      <c r="M23" s="71" t="s">
         <v>99</v>
       </c>
+      <c r="O23" s="84" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="74">
         <v>1.319</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="74">
         <v>2.41</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="74">
         <v>3.4249999999999998</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="74">
         <v>0.66800000000000004</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="74">
         <v>3.2469999999999999</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="73">
         <v>333</v>
       </c>
-      <c r="I24" s="81">
-        <v>0</v>
-      </c>
-      <c r="J24" s="81">
+      <c r="I24" s="73">
+        <v>0</v>
+      </c>
+      <c r="J24" s="73">
         <v>0</v>
       </c>
       <c r="K24" s="59"/>
@@ -6056,34 +6086,34 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="74">
         <v>0.21299999999999999</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="74">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E25" s="82">
+      <c r="E25" s="74">
         <v>0.29699999999999999</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="74">
         <v>2.4E-2</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G25" s="74">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H25" s="81">
+      <c r="H25" s="73">
         <v>179</v>
       </c>
-      <c r="I25" s="81">
-        <v>0</v>
-      </c>
-      <c r="J25" s="81">
+      <c r="I25" s="73">
+        <v>0</v>
+      </c>
+      <c r="J25" s="73">
         <v>0</v>
       </c>
       <c r="K25" s="59"/>
@@ -6109,39 +6139,39 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="82">
+      <c r="C26" s="74">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="74">
         <v>0.27400000000000002</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="74">
         <v>0.33900000000000002</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="74">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="74">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="73">
         <v>48</v>
       </c>
-      <c r="I26" s="81">
-        <v>0</v>
-      </c>
-      <c r="J26" s="81">
+      <c r="I26" s="73">
+        <v>0</v>
+      </c>
+      <c r="J26" s="73">
         <v>0</v>
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="60">
-        <f t="shared" ref="L26:L36" si="3">VLOOKUP(A26,$Q$24:$T$36,4,FALSE)</f>
+        <f t="shared" ref="L26:L36" si="4">VLOOKUP(A26,$Q$24:$T$36,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M26" s="59">
@@ -6162,39 +6192,39 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="74">
         <v>0.21</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="74">
         <v>0.247</v>
       </c>
-      <c r="E27" s="82">
+      <c r="E27" s="74">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="74">
         <v>2.7E-2</v>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="74">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H27" s="81">
+      <c r="H27" s="73">
         <v>179</v>
       </c>
-      <c r="I27" s="81">
-        <v>0</v>
-      </c>
-      <c r="J27" s="81">
+      <c r="I27" s="73">
+        <v>0</v>
+      </c>
+      <c r="J27" s="73">
         <v>0</v>
       </c>
       <c r="K27" s="59"/>
       <c r="L27" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.9031248081524677E-3</v>
       </c>
       <c r="M27" s="59">
@@ -6215,39 +6245,39 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="74">
         <v>0.42199999999999999</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="74">
         <v>0.498</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="74">
         <v>0.70299999999999996</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="74">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G28" s="82">
+      <c r="G28" s="74">
         <v>0.55600000000000005</v>
       </c>
-      <c r="H28" s="81">
+      <c r="H28" s="73">
         <v>205</v>
       </c>
-      <c r="I28" s="81">
-        <v>0</v>
-      </c>
-      <c r="J28" s="81">
+      <c r="I28" s="73">
+        <v>0</v>
+      </c>
+      <c r="J28" s="73">
         <v>0</v>
       </c>
       <c r="K28" s="59"/>
       <c r="L28" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9325988517259196E-3</v>
       </c>
       <c r="M28" s="59">
@@ -6268,39 +6298,39 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="74">
         <v>0.42399999999999999</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="74">
         <v>0.50900000000000001</v>
       </c>
-      <c r="E29" s="82">
+      <c r="E29" s="74">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="74">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G29" s="82">
+      <c r="G29" s="74">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H29" s="81">
+      <c r="H29" s="73">
         <v>184</v>
       </c>
-      <c r="I29" s="81">
-        <v>0</v>
-      </c>
-      <c r="J29" s="81">
+      <c r="I29" s="73">
+        <v>0</v>
+      </c>
+      <c r="J29" s="73">
         <v>0</v>
       </c>
       <c r="K29" s="59"/>
       <c r="L29" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.7602534765015498E-4</v>
       </c>
       <c r="M29" s="59">
@@ -6321,39 +6351,39 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="74">
         <v>0.219</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="74">
         <v>0.251</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="74">
         <v>0.29499999999999998</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="74">
         <v>2.3E-2</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="74">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="73">
         <v>66</v>
       </c>
-      <c r="I30" s="81">
-        <v>0</v>
-      </c>
-      <c r="J30" s="81">
+      <c r="I30" s="73">
+        <v>0</v>
+      </c>
+      <c r="J30" s="73">
         <v>0</v>
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7199017199017064E-2</v>
       </c>
       <c r="M30" s="59">
@@ -6374,39 +6404,39 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="74">
         <v>0.42199999999999999</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="74">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E31" s="82">
+      <c r="E31" s="74">
         <v>0.84</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="74">
         <v>5.5E-2</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="74">
         <v>0.59</v>
       </c>
-      <c r="H31" s="81">
+      <c r="H31" s="73">
         <v>333</v>
       </c>
-      <c r="I31" s="81">
-        <v>0</v>
-      </c>
-      <c r="J31" s="81">
+      <c r="I31" s="73">
+        <v>0</v>
+      </c>
+      <c r="J31" s="73">
         <v>0</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.4074537545376575E-3</v>
       </c>
       <c r="M31" s="59">
@@ -6427,39 +6457,39 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="82">
+      <c r="C32" s="74">
         <v>0.44500000000000001</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="74">
         <v>0.51500000000000001</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="74">
         <v>0.78900000000000003</v>
       </c>
-      <c r="F32" s="82">
+      <c r="F32" s="74">
         <v>4.7E-2</v>
       </c>
-      <c r="G32" s="82">
+      <c r="G32" s="74">
         <v>0.56799999999999995</v>
       </c>
-      <c r="H32" s="81">
+      <c r="H32" s="73">
         <v>268</v>
       </c>
-      <c r="I32" s="81">
-        <v>0</v>
-      </c>
-      <c r="J32" s="81">
+      <c r="I32" s="73">
+        <v>0</v>
+      </c>
+      <c r="J32" s="73">
         <v>0</v>
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.2530493858066158E-3</v>
       </c>
       <c r="M32" s="59">
@@ -6480,39 +6510,39 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="74">
         <v>0.41299999999999998</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="74">
         <v>0.48399999999999999</v>
       </c>
-      <c r="E33" s="82">
+      <c r="E33" s="74">
         <v>0.63900000000000001</v>
       </c>
-      <c r="F33" s="82">
+      <c r="F33" s="74">
         <v>0.04</v>
       </c>
-      <c r="G33" s="82">
+      <c r="G33" s="74">
         <v>0.53100000000000003</v>
       </c>
-      <c r="H33" s="81">
+      <c r="H33" s="73">
         <v>220</v>
       </c>
-      <c r="I33" s="81">
-        <v>0</v>
-      </c>
-      <c r="J33" s="81">
+      <c r="I33" s="73">
+        <v>0</v>
+      </c>
+      <c r="J33" s="73">
         <v>0</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.7446237972552634E-3</v>
       </c>
       <c r="M33" s="59">
@@ -6533,39 +6563,39 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="74">
         <v>0.21099999999999999</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="74">
         <v>0.24</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="74">
         <v>0.29199999999999998</v>
       </c>
-      <c r="F34" s="82">
+      <c r="F34" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G34" s="82">
+      <c r="G34" s="74">
         <v>0.28699999999999998</v>
       </c>
-      <c r="H34" s="81">
+      <c r="H34" s="73">
         <v>111</v>
       </c>
-      <c r="I34" s="81">
-        <v>0</v>
-      </c>
-      <c r="J34" s="81">
+      <c r="I34" s="73">
+        <v>0</v>
+      </c>
+      <c r="J34" s="73">
         <v>0</v>
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0790020790020236E-3</v>
       </c>
       <c r="M34" s="59">
@@ -6586,39 +6616,39 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="74">
         <v>0.42199999999999999</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="74">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E35" s="82">
+      <c r="E35" s="74">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F35" s="82">
+      <c r="F35" s="74">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G35" s="82">
+      <c r="G35" s="74">
         <v>0.63400000000000001</v>
       </c>
-      <c r="H35" s="81">
+      <c r="H35" s="73">
         <v>65</v>
       </c>
-      <c r="I35" s="81">
-        <v>0</v>
-      </c>
-      <c r="J35" s="81">
+      <c r="I35" s="73">
+        <v>0</v>
+      </c>
+      <c r="J35" s="73">
         <v>0</v>
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.7817047817047875E-2</v>
       </c>
       <c r="M35" s="59">
@@ -6639,39 +6669,39 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="74">
         <v>0.21</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="74">
         <v>0.249</v>
       </c>
-      <c r="E36" s="82">
+      <c r="E36" s="74">
         <v>0.28699999999999998</v>
       </c>
-      <c r="F36" s="82">
+      <c r="F36" s="74">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G36" s="82">
+      <c r="G36" s="74">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H36" s="81">
+      <c r="H36" s="73">
         <v>65</v>
       </c>
-      <c r="I36" s="81">
-        <v>0</v>
-      </c>
-      <c r="J36" s="81">
+      <c r="I36" s="73">
+        <v>0</v>
+      </c>
+      <c r="J36" s="73">
         <v>0</v>
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0790020790020236E-3</v>
       </c>
       <c r="M36" s="59">
@@ -6692,38 +6722,38 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="82">
+      <c r="C37" s="74">
         <v>3.0219999999999998</v>
       </c>
-      <c r="D37" s="82">
+      <c r="D37" s="74">
         <v>3.2120000000000002</v>
       </c>
-      <c r="E37" s="82">
+      <c r="E37" s="74">
         <v>3.4249999999999998</v>
       </c>
-      <c r="F37" s="82">
+      <c r="F37" s="74">
         <v>9.4E-2</v>
       </c>
-      <c r="G37" s="82">
+      <c r="G37" s="74">
         <v>3.3090000000000002</v>
       </c>
-      <c r="H37" s="81">
+      <c r="H37" s="73">
         <v>111</v>
       </c>
-      <c r="I37" s="81">
-        <v>0</v>
-      </c>
-      <c r="J37" s="81">
+      <c r="I37" s="73">
+        <v>0</v>
+      </c>
+      <c r="J37" s="73">
         <v>0</v>
       </c>
       <c r="K37" s="59" t="str">
-        <f>IF(C37&gt;V2,"ДА","НЕТ")</f>
+        <f t="shared" ref="K37:K42" si="5">IF(C37&gt;V2,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
       <c r="L37" s="59"/>
@@ -6733,38 +6763,38 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="82">
+      <c r="C38" s="74">
         <v>1.6990000000000001</v>
       </c>
-      <c r="D38" s="82">
+      <c r="D38" s="74">
         <v>1.895</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="74">
         <v>2.145</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="74">
         <v>0.112</v>
       </c>
-      <c r="G38" s="82">
+      <c r="G38" s="74">
         <v>2.0619999999999998</v>
       </c>
-      <c r="H38" s="81">
+      <c r="H38" s="73">
         <v>48</v>
       </c>
-      <c r="I38" s="81">
-        <v>0</v>
-      </c>
-      <c r="J38" s="81">
+      <c r="I38" s="73">
+        <v>0</v>
+      </c>
+      <c r="J38" s="73">
         <v>0</v>
       </c>
       <c r="K38" s="59" t="str">
-        <f>IF(C38&gt;V3,"ДА","НЕТ")</f>
+        <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
       <c r="L38" s="59"/>
@@ -6774,38 +6804,38 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="74">
         <v>1.319</v>
       </c>
-      <c r="D39" s="82">
+      <c r="D39" s="74">
         <v>1.5369999999999999</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="74">
         <v>1.6539999999999999</v>
       </c>
-      <c r="F39" s="82">
+      <c r="F39" s="74">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G39" s="82">
+      <c r="G39" s="74">
         <v>1.637</v>
       </c>
-      <c r="H39" s="81">
+      <c r="H39" s="73">
         <v>65</v>
       </c>
-      <c r="I39" s="81">
-        <v>0</v>
-      </c>
-      <c r="J39" s="81">
+      <c r="I39" s="73">
+        <v>0</v>
+      </c>
+      <c r="J39" s="73">
         <v>0</v>
       </c>
       <c r="K39" s="59" t="str">
-        <f>IF(C39&gt;V4,"ДА","НЕТ")</f>
+        <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
       <c r="L39" s="59"/>
@@ -6815,38 +6845,38 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="82">
+      <c r="C40" s="74">
         <v>1.3620000000000001</v>
       </c>
-      <c r="D40" s="82">
+      <c r="D40" s="74">
         <v>1.5740000000000001</v>
       </c>
-      <c r="E40" s="82">
+      <c r="E40" s="74">
         <v>1.7310000000000001</v>
       </c>
-      <c r="F40" s="82">
+      <c r="F40" s="74">
         <v>0.112</v>
       </c>
-      <c r="G40" s="82">
+      <c r="G40" s="74">
         <v>1.716</v>
       </c>
-      <c r="H40" s="81">
+      <c r="H40" s="73">
         <v>16</v>
       </c>
-      <c r="I40" s="81">
-        <v>0</v>
-      </c>
-      <c r="J40" s="81">
+      <c r="I40" s="73">
+        <v>0</v>
+      </c>
+      <c r="J40" s="73">
         <v>0</v>
       </c>
       <c r="K40" s="59" t="str">
-        <f>IF(C40&gt;V5,"ДА","НЕТ")</f>
+        <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
       <c r="L40" s="59"/>
@@ -6856,38 +6886,38 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="82">
+      <c r="C41" s="74">
         <v>2.31</v>
       </c>
-      <c r="D41" s="82">
+      <c r="D41" s="74">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E41" s="82">
+      <c r="E41" s="74">
         <v>2.6579999999999999</v>
       </c>
-      <c r="F41" s="82">
+      <c r="F41" s="74">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="G41" s="82">
+      <c r="G41" s="74">
         <v>2.5710000000000002</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="73">
         <v>68</v>
       </c>
-      <c r="I41" s="81">
-        <v>0</v>
-      </c>
-      <c r="J41" s="81">
+      <c r="I41" s="73">
+        <v>0</v>
+      </c>
+      <c r="J41" s="73">
         <v>0</v>
       </c>
       <c r="K41" s="59" t="str">
-        <f>IF(C41&gt;V6,"ДА","НЕТ")</f>
+        <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
       <c r="L41" s="59"/>
@@ -6895,40 +6925,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O41">
+        <f>SUM(H25:H42)</f>
+        <v>2256</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="82">
+      <c r="C42" s="74">
         <v>2.2370000000000001</v>
       </c>
-      <c r="D42" s="82">
+      <c r="D42" s="74">
         <v>2.5379999999999998</v>
       </c>
-      <c r="E42" s="82">
+      <c r="E42" s="74">
         <v>2.9350000000000001</v>
       </c>
-      <c r="F42" s="82">
+      <c r="F42" s="74">
         <v>0.155</v>
       </c>
-      <c r="G42" s="82">
+      <c r="G42" s="74">
         <v>2.762</v>
       </c>
-      <c r="H42" s="81">
+      <c r="H42" s="73">
         <v>25</v>
       </c>
-      <c r="I42" s="81">
-        <v>0</v>
-      </c>
-      <c r="J42" s="81">
+      <c r="I42" s="73">
+        <v>0</v>
+      </c>
+      <c r="J42" s="73">
         <v>0</v>
       </c>
       <c r="K42" s="59" t="str">
-        <f>IF(C42&gt;V7,"ДА","НЕТ")</f>
+        <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
       <c r="L42" s="59"/>
@@ -6938,91 +6972,94 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="73" t="s">
+      <c r="C44" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="73" t="s">
+      <c r="D44" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="73" t="s">
+      <c r="F44" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G44" s="73" t="s">
+      <c r="G44" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="73" t="s">
+      <c r="H44" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="73" t="s">
+      <c r="I44" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="73" t="s">
+      <c r="J44" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="75" t="s">
+      <c r="K44" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="L44" s="75" t="s">
+      <c r="L44" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="M44" s="75" t="s">
+      <c r="M44" s="71" t="s">
         <v>99</v>
       </c>
+      <c r="O44" s="84" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="72">
         <v>1.345</v>
       </c>
-      <c r="D45" s="76">
+      <c r="D45" s="72">
         <v>2.4780000000000002</v>
       </c>
-      <c r="E45" s="76">
+      <c r="E45" s="72">
         <v>3.4609999999999999</v>
       </c>
-      <c r="F45" s="76">
+      <c r="F45" s="72">
         <v>0.67300000000000004</v>
       </c>
-      <c r="G45" s="76">
+      <c r="G45" s="72">
         <v>3.302</v>
       </c>
-      <c r="H45" s="73">
+      <c r="H45" s="69">
         <v>518</v>
       </c>
-      <c r="I45" s="73">
-        <v>0</v>
-      </c>
-      <c r="J45" s="73">
+      <c r="I45" s="69">
+        <v>0</v>
+      </c>
+      <c r="J45" s="69">
         <v>0</v>
       </c>
       <c r="K45" s="59"/>
@@ -7042,34 +7079,34 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="72">
         <v>0.214</v>
       </c>
-      <c r="D46" s="76">
+      <c r="D46" s="72">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E46" s="76">
+      <c r="E46" s="72">
         <v>0.28499999999999998</v>
       </c>
-      <c r="F46" s="76">
+      <c r="F46" s="72">
         <v>0.02</v>
       </c>
-      <c r="G46" s="76">
+      <c r="G46" s="72">
         <v>0.26700000000000002</v>
       </c>
-      <c r="H46" s="73">
+      <c r="H46" s="69">
         <v>276</v>
       </c>
-      <c r="I46" s="73">
-        <v>0</v>
-      </c>
-      <c r="J46" s="73">
+      <c r="I46" s="69">
+        <v>0</v>
+      </c>
+      <c r="J46" s="69">
         <v>0</v>
       </c>
       <c r="K46" s="59"/>
@@ -7095,39 +7132,39 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="72">
         <v>0.245</v>
       </c>
-      <c r="D47" s="76">
+      <c r="D47" s="72">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E47" s="76">
+      <c r="E47" s="72">
         <v>0.38300000000000001</v>
       </c>
-      <c r="F47" s="76">
+      <c r="F47" s="72">
         <v>3.9E-2</v>
       </c>
-      <c r="G47" s="76">
+      <c r="G47" s="72">
         <v>0.35599999999999998</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="69">
         <v>74</v>
       </c>
-      <c r="I47" s="73">
-        <v>0</v>
-      </c>
-      <c r="J47" s="73">
+      <c r="I47" s="69">
+        <v>0</v>
+      </c>
+      <c r="J47" s="69">
         <v>0</v>
       </c>
       <c r="K47" s="59"/>
       <c r="L47" s="60">
-        <f t="shared" ref="L47:L57" si="4">VLOOKUP(A47,$Q$45:$T$57,4,FALSE)</f>
+        <f t="shared" ref="L47:L57" si="6">VLOOKUP(A47,$Q$45:$T$57,4,FALSE)</f>
         <v>2.7027027027026973E-2</v>
       </c>
       <c r="M47" s="59">
@@ -7148,39 +7185,39 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="72">
         <v>0.216</v>
       </c>
-      <c r="D48" s="76">
+      <c r="D48" s="72">
         <v>0.249</v>
       </c>
-      <c r="E48" s="76">
+      <c r="E48" s="72">
         <v>0.33900000000000002</v>
       </c>
-      <c r="F48" s="76">
+      <c r="F48" s="72">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G48" s="76">
+      <c r="G48" s="72">
         <v>0.28699999999999998</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="69">
         <v>276</v>
       </c>
-      <c r="I48" s="73">
-        <v>0</v>
-      </c>
-      <c r="J48" s="73">
+      <c r="I48" s="69">
+        <v>0</v>
+      </c>
+      <c r="J48" s="69">
         <v>0</v>
       </c>
       <c r="K48" s="59"/>
       <c r="L48" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.532250358337329E-2</v>
       </c>
       <c r="M48" s="59">
@@ -7201,39 +7238,39 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="72">
         <v>0.45100000000000001</v>
       </c>
-      <c r="D49" s="76">
+      <c r="D49" s="72">
         <v>0.52100000000000002</v>
       </c>
-      <c r="E49" s="76">
+      <c r="E49" s="72">
         <v>0.76700000000000002</v>
       </c>
-      <c r="F49" s="76">
+      <c r="F49" s="72">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G49" s="76">
+      <c r="G49" s="72">
         <v>0.56899999999999995</v>
       </c>
-      <c r="H49" s="73">
+      <c r="H49" s="69">
         <v>319</v>
       </c>
-      <c r="I49" s="73">
-        <v>0</v>
-      </c>
-      <c r="J49" s="73">
+      <c r="I49" s="69">
+        <v>0</v>
+      </c>
+      <c r="J49" s="69">
         <v>0</v>
       </c>
       <c r="K49" s="59"/>
       <c r="L49" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.7913085100017896E-2</v>
       </c>
       <c r="M49" s="59">
@@ -7254,39 +7291,39 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="72">
         <v>0.44800000000000001</v>
       </c>
-      <c r="D50" s="76">
+      <c r="D50" s="72">
         <v>0.53100000000000003</v>
       </c>
-      <c r="E50" s="76">
+      <c r="E50" s="72">
         <v>0.84799999999999998</v>
       </c>
-      <c r="F50" s="76">
+      <c r="F50" s="72">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G50" s="76">
+      <c r="G50" s="72">
         <v>0.6</v>
       </c>
-      <c r="H50" s="73">
+      <c r="H50" s="69">
         <v>285</v>
       </c>
-      <c r="I50" s="73">
-        <v>0</v>
-      </c>
-      <c r="J50" s="73">
+      <c r="I50" s="69">
+        <v>0</v>
+      </c>
+      <c r="J50" s="69">
         <v>0</v>
       </c>
       <c r="K50" s="59"/>
       <c r="L50" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1408480715959808E-2</v>
       </c>
       <c r="M50" s="59">
@@ -7307,39 +7344,39 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="72">
         <v>0.23499999999999999</v>
       </c>
-      <c r="D51" s="76">
+      <c r="D51" s="72">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E51" s="76">
+      <c r="E51" s="72">
         <v>0.33</v>
       </c>
-      <c r="F51" s="76">
+      <c r="F51" s="72">
         <v>2.7E-2</v>
       </c>
-      <c r="G51" s="76">
+      <c r="G51" s="72">
         <v>0.32100000000000001</v>
       </c>
-      <c r="H51" s="73">
+      <c r="H51" s="69">
         <v>101</v>
       </c>
-      <c r="I51" s="73">
-        <v>0</v>
-      </c>
-      <c r="J51" s="73">
+      <c r="I51" s="69">
+        <v>0</v>
+      </c>
+      <c r="J51" s="69">
         <v>0</v>
       </c>
       <c r="K51" s="59"/>
       <c r="L51" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6660422799036585E-2</v>
       </c>
       <c r="M51" s="59">
@@ -7360,39 +7397,39 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="72">
         <v>0.41499999999999998</v>
       </c>
-      <c r="D52" s="76">
+      <c r="D52" s="72">
         <v>0.52300000000000002</v>
       </c>
-      <c r="E52" s="76">
+      <c r="E52" s="72">
         <v>0.74</v>
       </c>
-      <c r="F52" s="76">
+      <c r="F52" s="72">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G52" s="76">
+      <c r="G52" s="72">
         <v>0.58899999999999997</v>
       </c>
-      <c r="H52" s="73">
+      <c r="H52" s="69">
         <v>520</v>
       </c>
-      <c r="I52" s="73">
-        <v>0</v>
-      </c>
-      <c r="J52" s="73">
+      <c r="I52" s="69">
+        <v>0</v>
+      </c>
+      <c r="J52" s="69">
         <v>0</v>
       </c>
       <c r="K52" s="59"/>
       <c r="L52" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.8071109326170083E-2</v>
       </c>
       <c r="M52" s="59">
@@ -7413,39 +7450,39 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="76">
+      <c r="C53" s="72">
         <v>0.437</v>
       </c>
-      <c r="D53" s="76">
+      <c r="D53" s="72">
         <v>0.52600000000000002</v>
       </c>
-      <c r="E53" s="76">
+      <c r="E53" s="72">
         <v>0.69199999999999995</v>
       </c>
-      <c r="F53" s="76">
+      <c r="F53" s="72">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G53" s="76">
+      <c r="G53" s="72">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H53" s="73">
+      <c r="H53" s="69">
         <v>419</v>
       </c>
-      <c r="I53" s="73">
-        <v>0</v>
-      </c>
-      <c r="J53" s="73">
+      <c r="I53" s="69">
+        <v>0</v>
+      </c>
+      <c r="J53" s="69">
         <v>0</v>
       </c>
       <c r="K53" s="59"/>
       <c r="L53" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.8411155481875348E-2</v>
       </c>
       <c r="M53" s="59">
@@ -7466,39 +7503,39 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="76">
+      <c r="C54" s="72">
         <v>0.41299999999999998</v>
       </c>
-      <c r="D54" s="76">
+      <c r="D54" s="72">
         <v>0.498</v>
       </c>
-      <c r="E54" s="76">
+      <c r="E54" s="72">
         <v>0.748</v>
       </c>
-      <c r="F54" s="76">
+      <c r="F54" s="72">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G54" s="76">
+      <c r="G54" s="72">
         <v>0.54200000000000004</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="69">
         <v>343</v>
       </c>
-      <c r="I54" s="73">
-        <v>0</v>
-      </c>
-      <c r="J54" s="73">
+      <c r="I54" s="69">
+        <v>0</v>
+      </c>
+      <c r="J54" s="69">
         <v>0</v>
       </c>
       <c r="K54" s="59"/>
       <c r="L54" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5260274480774734E-2</v>
       </c>
       <c r="M54" s="59">
@@ -7519,39 +7556,39 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="76">
+      <c r="C55" s="72">
         <v>0.218</v>
       </c>
-      <c r="D55" s="76">
+      <c r="D55" s="72">
         <v>0.24</v>
       </c>
-      <c r="E55" s="76">
+      <c r="E55" s="72">
         <v>0.28699999999999998</v>
       </c>
-      <c r="F55" s="76">
+      <c r="F55" s="72">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G55" s="76">
+      <c r="G55" s="72">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H55" s="73">
+      <c r="H55" s="69">
         <v>171</v>
       </c>
-      <c r="I55" s="73">
-        <v>0</v>
-      </c>
-      <c r="J55" s="73">
+      <c r="I55" s="69">
+        <v>0</v>
+      </c>
+      <c r="J55" s="69">
         <v>0</v>
       </c>
       <c r="K55" s="59"/>
       <c r="L55" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8340080971659853E-2</v>
       </c>
       <c r="M55" s="59">
@@ -7572,39 +7609,39 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="76">
+      <c r="C56" s="72">
         <v>0.45500000000000002</v>
       </c>
-      <c r="D56" s="76">
+      <c r="D56" s="72">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E56" s="76">
+      <c r="E56" s="72">
         <v>0.65800000000000003</v>
       </c>
-      <c r="F56" s="76">
+      <c r="F56" s="72">
         <v>0.05</v>
       </c>
-      <c r="G56" s="76">
+      <c r="G56" s="72">
         <v>0.61699999999999999</v>
       </c>
-      <c r="H56" s="73">
+      <c r="H56" s="69">
         <v>101</v>
       </c>
-      <c r="I56" s="73">
-        <v>0</v>
-      </c>
-      <c r="J56" s="73">
+      <c r="I56" s="69">
+        <v>0</v>
+      </c>
+      <c r="J56" s="69">
         <v>0</v>
       </c>
       <c r="K56" s="59"/>
       <c r="L56" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.1506556061011475E-2</v>
       </c>
       <c r="M56" s="59">
@@ -7625,39 +7662,39 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="76">
+      <c r="C57" s="72">
         <v>0.214</v>
       </c>
-      <c r="D57" s="76">
+      <c r="D57" s="72">
         <v>0.24299999999999999</v>
       </c>
-      <c r="E57" s="76">
+      <c r="E57" s="72">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F57" s="76">
+      <c r="F57" s="72">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G57" s="76">
+      <c r="G57" s="72">
         <v>0.28799999999999998</v>
       </c>
-      <c r="H57" s="73">
+      <c r="H57" s="69">
         <v>101</v>
       </c>
-      <c r="I57" s="73">
-        <v>0</v>
-      </c>
-      <c r="J57" s="73">
+      <c r="I57" s="69">
+        <v>0</v>
+      </c>
+      <c r="J57" s="69">
         <v>0</v>
       </c>
       <c r="K57" s="59"/>
       <c r="L57" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6660422799036585E-2</v>
       </c>
       <c r="M57" s="59">
@@ -7678,38 +7715,38 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="73" t="s">
+      <c r="A58" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="72">
         <v>3.1059999999999999</v>
       </c>
-      <c r="D58" s="76">
+      <c r="D58" s="72">
         <v>3.258</v>
       </c>
-      <c r="E58" s="76">
+      <c r="E58" s="72">
         <v>3.4609999999999999</v>
       </c>
-      <c r="F58" s="76">
+      <c r="F58" s="72">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="G58" s="76">
+      <c r="G58" s="72">
         <v>3.3610000000000002</v>
       </c>
-      <c r="H58" s="73">
+      <c r="H58" s="69">
         <v>173</v>
       </c>
-      <c r="I58" s="73">
-        <v>0</v>
-      </c>
-      <c r="J58" s="73">
+      <c r="I58" s="69">
+        <v>0</v>
+      </c>
+      <c r="J58" s="69">
         <v>0</v>
       </c>
       <c r="K58" s="59" t="str">
-        <f>IF(G58&gt;V2,"ДА","НЕТ")</f>
+        <f t="shared" ref="K58:K63" si="7">IF(G58&gt;V2,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
       <c r="L58" s="59"/>
@@ -7719,38 +7756,38 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="72">
         <v>1.7170000000000001</v>
       </c>
-      <c r="D59" s="76">
+      <c r="D59" s="72">
         <v>1.9470000000000001</v>
       </c>
-      <c r="E59" s="76">
+      <c r="E59" s="72">
         <v>2.173</v>
       </c>
-      <c r="F59" s="76">
+      <c r="F59" s="72">
         <v>0.11</v>
       </c>
-      <c r="G59" s="76">
+      <c r="G59" s="72">
         <v>2.085</v>
       </c>
-      <c r="H59" s="73">
+      <c r="H59" s="69">
         <v>74</v>
       </c>
-      <c r="I59" s="73">
-        <v>0</v>
-      </c>
-      <c r="J59" s="73">
+      <c r="I59" s="69">
+        <v>0</v>
+      </c>
+      <c r="J59" s="69">
         <v>0</v>
       </c>
       <c r="K59" s="59" t="str">
-        <f>IF(G59&gt;V3,"ДА","НЕТ")</f>
+        <f t="shared" si="7"/>
         <v>НЕТ</v>
       </c>
       <c r="L59" s="59"/>
@@ -7760,38 +7797,38 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="76">
+      <c r="C60" s="72">
         <v>1.4470000000000001</v>
       </c>
-      <c r="D60" s="76">
+      <c r="D60" s="72">
         <v>1.5840000000000001</v>
       </c>
-      <c r="E60" s="76">
+      <c r="E60" s="72">
         <v>1.7989999999999999</v>
       </c>
-      <c r="F60" s="76">
+      <c r="F60" s="72">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G60" s="76">
+      <c r="G60" s="72">
         <v>1.69</v>
       </c>
-      <c r="H60" s="73">
+      <c r="H60" s="69">
         <v>101</v>
       </c>
-      <c r="I60" s="73">
-        <v>0</v>
-      </c>
-      <c r="J60" s="73">
+      <c r="I60" s="69">
+        <v>0</v>
+      </c>
+      <c r="J60" s="69">
         <v>0</v>
       </c>
       <c r="K60" s="59" t="str">
-        <f>IF(G60&gt;V4,"ДА","НЕТ")</f>
+        <f t="shared" si="7"/>
         <v>НЕТ</v>
       </c>
       <c r="L60" s="59"/>
@@ -7801,38 +7838,38 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="76">
+      <c r="C61" s="72">
         <v>1.345</v>
       </c>
-      <c r="D61" s="76">
+      <c r="D61" s="72">
         <v>1.589</v>
       </c>
-      <c r="E61" s="76">
+      <c r="E61" s="72">
         <v>1.871</v>
       </c>
-      <c r="F61" s="76">
+      <c r="F61" s="72">
         <v>0.105</v>
       </c>
-      <c r="G61" s="76">
+      <c r="G61" s="72">
         <v>1.6850000000000001</v>
       </c>
-      <c r="H61" s="73">
+      <c r="H61" s="69">
         <v>25</v>
       </c>
-      <c r="I61" s="73">
-        <v>0</v>
-      </c>
-      <c r="J61" s="73">
+      <c r="I61" s="69">
+        <v>0</v>
+      </c>
+      <c r="J61" s="69">
         <v>0</v>
       </c>
       <c r="K61" s="59" t="str">
-        <f>IF(G61&gt;V5,"ДА","НЕТ")</f>
+        <f t="shared" si="7"/>
         <v>НЕТ</v>
       </c>
       <c r="L61" s="59"/>
@@ -7842,38 +7879,38 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="76">
+      <c r="C62" s="72">
         <v>2.4089999999999998</v>
       </c>
-      <c r="D62" s="76">
+      <c r="D62" s="72">
         <v>2.5619999999999998</v>
       </c>
-      <c r="E62" s="76">
+      <c r="E62" s="72">
         <v>2.7450000000000001</v>
       </c>
-      <c r="F62" s="76">
+      <c r="F62" s="72">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G62" s="76">
+      <c r="G62" s="72">
         <v>2.6419999999999999</v>
       </c>
-      <c r="H62" s="73">
+      <c r="H62" s="69">
         <v>105</v>
       </c>
-      <c r="I62" s="73">
-        <v>0</v>
-      </c>
-      <c r="J62" s="73">
+      <c r="I62" s="69">
+        <v>0</v>
+      </c>
+      <c r="J62" s="69">
         <v>0</v>
       </c>
       <c r="K62" s="59" t="str">
-        <f>IF(G62&gt;V6,"ДА","НЕТ")</f>
+        <f t="shared" si="7"/>
         <v>НЕТ</v>
       </c>
       <c r="L62" s="59"/>
@@ -7881,40 +7918,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O62">
+        <f>SUM(H46:H63)</f>
+        <v>3504</v>
+      </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="73" t="s">
+      <c r="A63" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="76">
+      <c r="C63" s="72">
         <v>2.294</v>
       </c>
-      <c r="D63" s="76">
+      <c r="D63" s="72">
         <v>2.6720000000000002</v>
       </c>
-      <c r="E63" s="76">
+      <c r="E63" s="72">
         <v>3.0760000000000001</v>
       </c>
-      <c r="F63" s="76">
+      <c r="F63" s="72">
         <v>0.191</v>
       </c>
-      <c r="G63" s="76">
+      <c r="G63" s="72">
         <v>2.8879999999999999</v>
       </c>
-      <c r="H63" s="73">
+      <c r="H63" s="69">
         <v>40</v>
       </c>
-      <c r="I63" s="73">
-        <v>0</v>
-      </c>
-      <c r="J63" s="73">
+      <c r="I63" s="69">
+        <v>0</v>
+      </c>
+      <c r="J63" s="69">
         <v>0</v>
       </c>
       <c r="K63" s="59" t="str">
-        <f>IF(G63&gt;V7,"ДА","НЕТ")</f>
+        <f t="shared" si="7"/>
         <v>НЕТ</v>
       </c>
       <c r="L63" s="59"/>
@@ -7936,91 +7977,94 @@
       <c r="J64" s="65"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="73" t="s">
+      <c r="C66" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="73" t="s">
+      <c r="D66" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="73" t="s">
+      <c r="E66" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F66" s="73" t="s">
+      <c r="F66" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G66" s="73" t="s">
+      <c r="G66" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="H66" s="73" t="s">
+      <c r="H66" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="73" t="s">
+      <c r="I66" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="73" t="s">
+      <c r="J66" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K66" s="75" t="s">
+      <c r="K66" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="L66" s="75" t="s">
+      <c r="L66" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="M66" s="75" t="s">
+      <c r="M66" s="71" t="s">
         <v>99</v>
       </c>
+      <c r="O66" s="84" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="76">
+      <c r="C67" s="72">
         <v>1.38</v>
       </c>
-      <c r="D67" s="76">
+      <c r="D67" s="72">
         <v>2.5680000000000001</v>
       </c>
-      <c r="E67" s="76">
+      <c r="E67" s="72">
         <v>3.6240000000000001</v>
       </c>
-      <c r="F67" s="76">
+      <c r="F67" s="72">
         <v>0.72099999999999997</v>
       </c>
-      <c r="G67" s="76">
+      <c r="G67" s="72">
         <v>3.4660000000000002</v>
       </c>
-      <c r="H67" s="73">
+      <c r="H67" s="69">
         <v>697</v>
       </c>
-      <c r="I67" s="73">
+      <c r="I67" s="69">
         <v>2</v>
       </c>
-      <c r="J67" s="73">
+      <c r="J67" s="69">
         <v>0</v>
       </c>
       <c r="K67" s="59"/>
@@ -8040,34 +8084,34 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="76">
+      <c r="C68" s="72">
         <v>0.219</v>
       </c>
-      <c r="D68" s="76">
+      <c r="D68" s="72">
         <v>0.248</v>
       </c>
-      <c r="E68" s="76">
+      <c r="E68" s="72">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F68" s="76">
+      <c r="F68" s="72">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G68" s="76">
+      <c r="G68" s="72">
         <v>0.26900000000000002</v>
       </c>
-      <c r="H68" s="73">
+      <c r="H68" s="69">
         <v>375</v>
       </c>
-      <c r="I68" s="73">
-        <v>0</v>
-      </c>
-      <c r="J68" s="73">
+      <c r="I68" s="69">
+        <v>0</v>
+      </c>
+      <c r="J68" s="69">
         <v>0</v>
       </c>
       <c r="K68" s="59"/>
@@ -8076,7 +8120,7 @@
         <v>4.3516483516483739E-2</v>
       </c>
       <c r="M68" s="59">
-        <f t="shared" ref="M68:M107" si="5">(H68+I68+J68)/100*I68</f>
+        <f t="shared" ref="M68:M107" si="8">(H68+I68+J68)/100*I68</f>
         <v>0</v>
       </c>
       <c r="Q68" t="s">
@@ -8093,43 +8137,43 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="76">
+      <c r="C69" s="72">
         <v>0.25900000000000001</v>
       </c>
-      <c r="D69" s="76">
+      <c r="D69" s="72">
         <v>0.307</v>
       </c>
-      <c r="E69" s="76">
+      <c r="E69" s="72">
         <v>0.39100000000000001</v>
       </c>
-      <c r="F69" s="76">
+      <c r="F69" s="72">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G69" s="76">
+      <c r="G69" s="72">
         <v>0.34100000000000003</v>
       </c>
-      <c r="H69" s="73">
+      <c r="H69" s="69">
         <v>99</v>
       </c>
-      <c r="I69" s="73">
+      <c r="I69" s="69">
         <v>2</v>
       </c>
-      <c r="J69" s="73">
+      <c r="J69" s="69">
         <v>0</v>
       </c>
       <c r="K69" s="59"/>
       <c r="L69" s="60">
-        <f t="shared" ref="L69:L79" si="6">VLOOKUP(A69,$Q$68:$T$79,4,FALSE)</f>
+        <f t="shared" ref="L69:L79" si="9">VLOOKUP(A69,$Q$68:$T$79,4,FALSE)</f>
         <v>3.0303030303030276E-2</v>
       </c>
-      <c r="M69" s="84">
-        <f t="shared" si="5"/>
+      <c r="M69" s="76">
+        <f t="shared" si="8"/>
         <v>2.02</v>
       </c>
       <c r="Q69" t="s">
@@ -8146,43 +8190,43 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="76">
+      <c r="C70" s="72">
         <v>0.222</v>
       </c>
-      <c r="D70" s="76">
+      <c r="D70" s="72">
         <v>0.25800000000000001</v>
       </c>
-      <c r="E70" s="76">
+      <c r="E70" s="72">
         <v>0.315</v>
       </c>
-      <c r="F70" s="76">
+      <c r="F70" s="72">
         <v>0.02</v>
       </c>
-      <c r="G70" s="76">
+      <c r="G70" s="72">
         <v>0.28499999999999998</v>
       </c>
-      <c r="H70" s="73">
+      <c r="H70" s="69">
         <v>375</v>
       </c>
-      <c r="I70" s="73">
-        <v>0</v>
-      </c>
-      <c r="J70" s="73">
+      <c r="I70" s="69">
+        <v>0</v>
+      </c>
+      <c r="J70" s="69">
         <v>0</v>
       </c>
       <c r="K70" s="59"/>
       <c r="L70" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.3516483516483739E-2</v>
       </c>
       <c r="M70" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q70" t="s">
@@ -8199,43 +8243,43 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="73" t="s">
+      <c r="B71" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="76">
+      <c r="C71" s="72">
         <v>0.44</v>
       </c>
-      <c r="D71" s="76">
+      <c r="D71" s="72">
         <v>0.54300000000000004</v>
       </c>
-      <c r="E71" s="76">
+      <c r="E71" s="72">
         <v>0.72</v>
       </c>
-      <c r="F71" s="76">
+      <c r="F71" s="72">
         <v>0.04</v>
       </c>
-      <c r="G71" s="76">
+      <c r="G71" s="72">
         <v>0.59</v>
       </c>
-      <c r="H71" s="73">
+      <c r="H71" s="69">
         <v>428</v>
       </c>
-      <c r="I71" s="73">
-        <v>0</v>
-      </c>
-      <c r="J71" s="73">
+      <c r="I71" s="69">
+        <v>0</v>
+      </c>
+      <c r="J71" s="69">
         <v>0</v>
       </c>
       <c r="K71" s="59"/>
       <c r="L71" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.3907396096279583E-2</v>
       </c>
       <c r="M71" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q71" t="s">
@@ -8252,43 +8296,43 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="76">
+      <c r="C72" s="72">
         <v>0.46100000000000002</v>
       </c>
-      <c r="D72" s="76">
+      <c r="D72" s="72">
         <v>0.54500000000000004</v>
       </c>
-      <c r="E72" s="76">
+      <c r="E72" s="72">
         <v>0.745</v>
       </c>
-      <c r="F72" s="76">
+      <c r="F72" s="72">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G72" s="76">
+      <c r="G72" s="72">
         <v>0.60699999999999998</v>
       </c>
-      <c r="H72" s="73">
+      <c r="H72" s="69">
         <v>388</v>
       </c>
-      <c r="I72" s="73">
-        <v>0</v>
-      </c>
-      <c r="J72" s="73">
+      <c r="I72" s="69">
+        <v>0</v>
+      </c>
+      <c r="J72" s="69">
         <v>0</v>
       </c>
       <c r="K72" s="59"/>
       <c r="L72" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.1379439876455546E-2</v>
       </c>
       <c r="M72" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q72" t="s">
@@ -8305,43 +8349,43 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="76">
+      <c r="C73" s="72">
         <v>0.23899999999999999</v>
       </c>
-      <c r="D73" s="76">
+      <c r="D73" s="72">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E73" s="76">
+      <c r="E73" s="72">
         <v>0.29799999999999999</v>
       </c>
-      <c r="F73" s="76">
+      <c r="F73" s="72">
         <v>1.6E-2</v>
       </c>
-      <c r="G73" s="76">
+      <c r="G73" s="72">
         <v>0.28499999999999998</v>
       </c>
-      <c r="H73" s="73">
+      <c r="H73" s="69">
         <v>136</v>
       </c>
-      <c r="I73" s="73">
-        <v>0</v>
-      </c>
-      <c r="J73" s="73">
+      <c r="I73" s="69">
+        <v>0</v>
+      </c>
+      <c r="J73" s="69">
         <v>0</v>
       </c>
       <c r="K73" s="59"/>
       <c r="L73" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.610492845786951E-2</v>
       </c>
       <c r="M73" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q73" t="s">
@@ -8358,43 +8402,43 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="76">
+      <c r="C74" s="72">
         <v>0.41599999999999998</v>
       </c>
-      <c r="D74" s="76">
+      <c r="D74" s="72">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E74" s="76">
+      <c r="E74" s="72">
         <v>0.77100000000000002</v>
       </c>
-      <c r="F74" s="76">
+      <c r="F74" s="72">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G74" s="76">
+      <c r="G74" s="72">
         <v>0.60099999999999998</v>
       </c>
-      <c r="H74" s="73">
+      <c r="H74" s="69">
         <v>699</v>
       </c>
-      <c r="I74" s="73">
-        <v>0</v>
-      </c>
-      <c r="J74" s="73">
+      <c r="I74" s="69">
+        <v>0</v>
+      </c>
+      <c r="J74" s="69">
         <v>0</v>
       </c>
       <c r="K74" s="59"/>
       <c r="L74" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.5869292989238808E-2</v>
       </c>
       <c r="M74" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q74" t="s">
@@ -8411,43 +8455,43 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="76">
+      <c r="C75" s="72">
         <v>0.443</v>
       </c>
-      <c r="D75" s="76">
+      <c r="D75" s="72">
         <v>0.54400000000000004</v>
       </c>
-      <c r="E75" s="76">
+      <c r="E75" s="72">
         <v>0.72799999999999998</v>
       </c>
-      <c r="F75" s="76">
+      <c r="F75" s="72">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G75" s="76">
+      <c r="G75" s="72">
         <v>0.59599999999999997</v>
       </c>
-      <c r="H75" s="73">
+      <c r="H75" s="69">
         <v>562</v>
       </c>
-      <c r="I75" s="73">
-        <v>0</v>
-      </c>
-      <c r="J75" s="73">
+      <c r="I75" s="69">
+        <v>0</v>
+      </c>
+      <c r="J75" s="69">
         <v>0</v>
       </c>
       <c r="K75" s="59"/>
       <c r="L75" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.4114529411401593E-2</v>
       </c>
       <c r="M75" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q75" t="s">
@@ -8464,43 +8508,43 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="73" t="s">
+      <c r="B76" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="76">
+      <c r="C76" s="72">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D76" s="76">
+      <c r="D76" s="72">
         <v>0.50600000000000001</v>
       </c>
-      <c r="E76" s="76">
+      <c r="E76" s="72">
         <v>0.68</v>
       </c>
-      <c r="F76" s="76">
+      <c r="F76" s="72">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G76" s="76">
+      <c r="G76" s="72">
         <v>0.54300000000000004</v>
       </c>
-      <c r="H76" s="73">
+      <c r="H76" s="69">
         <v>462</v>
       </c>
-      <c r="I76" s="73">
-        <v>0</v>
-      </c>
-      <c r="J76" s="73">
+      <c r="I76" s="69">
+        <v>0</v>
+      </c>
+      <c r="J76" s="69">
         <v>0</v>
       </c>
       <c r="K76" s="59"/>
       <c r="L76" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.5005120193090109E-2</v>
       </c>
       <c r="M76" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q76" t="s">
@@ -8517,43 +8561,43 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="76">
+      <c r="C77" s="72">
         <v>0.224</v>
       </c>
-      <c r="D77" s="76">
+      <c r="D77" s="72">
         <v>0.26</v>
       </c>
-      <c r="E77" s="76">
+      <c r="E77" s="72">
         <v>0.28899999999999998</v>
       </c>
-      <c r="F77" s="76">
+      <c r="F77" s="72">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G77" s="76">
+      <c r="G77" s="72">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H77" s="73">
+      <c r="H77" s="69">
         <v>232</v>
       </c>
-      <c r="I77" s="73">
-        <v>0</v>
-      </c>
-      <c r="J77" s="73">
+      <c r="I77" s="69">
+        <v>0</v>
+      </c>
+      <c r="J77" s="69">
         <v>0</v>
       </c>
       <c r="K77" s="59"/>
       <c r="L77" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.50928381962864E-2</v>
       </c>
       <c r="M77" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q77" t="s">
@@ -8570,43 +8614,43 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="76">
+      <c r="C78" s="72">
         <v>0.498</v>
       </c>
-      <c r="D78" s="76">
+      <c r="D78" s="72">
         <v>0.56799999999999995</v>
       </c>
-      <c r="E78" s="76">
+      <c r="E78" s="72">
         <v>0.65300000000000002</v>
       </c>
-      <c r="F78" s="76">
+      <c r="F78" s="72">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G78" s="76">
+      <c r="G78" s="72">
         <v>0.61</v>
       </c>
-      <c r="H78" s="73">
+      <c r="H78" s="69">
         <v>136</v>
       </c>
-      <c r="I78" s="73">
-        <v>0</v>
-      </c>
-      <c r="J78" s="73">
+      <c r="I78" s="69">
+        <v>0</v>
+      </c>
+      <c r="J78" s="69">
         <v>0</v>
       </c>
       <c r="K78" s="59"/>
       <c r="L78" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.5898251192369983E-3</v>
       </c>
       <c r="M78" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q78" t="s">
@@ -8623,43 +8667,43 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="73" t="s">
+      <c r="A79" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="76">
+      <c r="C79" s="72">
         <v>0.223</v>
       </c>
-      <c r="D79" s="76">
+      <c r="D79" s="72">
         <v>0.25</v>
       </c>
-      <c r="E79" s="76">
+      <c r="E79" s="72">
         <v>0.30399999999999999</v>
       </c>
-      <c r="F79" s="76">
+      <c r="F79" s="72">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G79" s="76">
+      <c r="G79" s="72">
         <v>0.28699999999999998</v>
       </c>
-      <c r="H79" s="73">
+      <c r="H79" s="69">
         <v>136</v>
       </c>
-      <c r="I79" s="73">
-        <v>0</v>
-      </c>
-      <c r="J79" s="73">
+      <c r="I79" s="69">
+        <v>0</v>
+      </c>
+      <c r="J79" s="69">
         <v>0</v>
       </c>
       <c r="K79" s="59"/>
       <c r="L79" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.610492845786951E-2</v>
       </c>
       <c r="M79" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q79" t="s">
@@ -8676,248 +8720,253 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B80" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="76">
+      <c r="C80" s="72">
         <v>3.3250000000000002</v>
       </c>
-      <c r="D80" s="76">
+      <c r="D80" s="72">
         <v>3.4340000000000002</v>
       </c>
-      <c r="E80" s="76">
+      <c r="E80" s="72">
         <v>3.6240000000000001</v>
       </c>
-      <c r="F80" s="76">
+      <c r="F80" s="72">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="G80" s="76">
+      <c r="G80" s="72">
         <v>3.5510000000000002</v>
       </c>
-      <c r="H80" s="73">
+      <c r="H80" s="69">
         <v>231</v>
       </c>
-      <c r="I80" s="73">
-        <v>0</v>
-      </c>
-      <c r="J80" s="73">
+      <c r="I80" s="69">
+        <v>0</v>
+      </c>
+      <c r="J80" s="69">
         <v>0</v>
       </c>
       <c r="K80" s="59" t="str">
-        <f>IF(G80&gt;V2,"ДА","НЕТ")</f>
+        <f t="shared" ref="K80:K85" si="10">IF(G80&gt;V2,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
       <c r="L80" s="59"/>
       <c r="M80" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="73" t="s">
+      <c r="A81" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="73" t="s">
+      <c r="B81" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="76">
+      <c r="C81" s="72">
         <v>1.875</v>
       </c>
-      <c r="D81" s="76">
+      <c r="D81" s="72">
         <v>2.0049999999999999</v>
       </c>
-      <c r="E81" s="76">
+      <c r="E81" s="72">
         <v>2.1829999999999998</v>
       </c>
-      <c r="F81" s="76">
+      <c r="F81" s="72">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G81" s="76">
+      <c r="G81" s="72">
         <v>2.1080000000000001</v>
       </c>
-      <c r="H81" s="73">
+      <c r="H81" s="69">
         <v>99</v>
       </c>
-      <c r="I81" s="73">
+      <c r="I81" s="69">
         <v>2</v>
       </c>
-      <c r="J81" s="73">
+      <c r="J81" s="69">
         <v>0</v>
       </c>
       <c r="K81" s="59" t="str">
-        <f>IF(G81&gt;V3,"ДА","НЕТ")</f>
+        <f t="shared" si="10"/>
         <v>НЕТ</v>
       </c>
       <c r="L81" s="59"/>
-      <c r="M81" s="84">
-        <f t="shared" si="5"/>
+      <c r="M81" s="76">
+        <f t="shared" si="8"/>
         <v>2.02</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="73" t="s">
+      <c r="A82" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="73" t="s">
+      <c r="B82" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="76">
+      <c r="C82" s="72">
         <v>1.506</v>
       </c>
-      <c r="D82" s="76">
+      <c r="D82" s="72">
         <v>1.6359999999999999</v>
       </c>
-      <c r="E82" s="76">
+      <c r="E82" s="72">
         <v>1.736</v>
       </c>
-      <c r="F82" s="76">
+      <c r="F82" s="72">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G82" s="76">
+      <c r="G82" s="72">
         <v>1.698</v>
       </c>
-      <c r="H82" s="73">
+      <c r="H82" s="69">
         <v>136</v>
       </c>
-      <c r="I82" s="73">
-        <v>0</v>
-      </c>
-      <c r="J82" s="73">
+      <c r="I82" s="69">
+        <v>0</v>
+      </c>
+      <c r="J82" s="69">
         <v>0</v>
       </c>
       <c r="K82" s="59" t="str">
-        <f>IF(G82&gt;V4,"ДА","НЕТ")</f>
+        <f t="shared" si="10"/>
         <v>НЕТ</v>
       </c>
       <c r="L82" s="59"/>
       <c r="M82" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="73" t="s">
+      <c r="A83" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="76">
+      <c r="C83" s="72">
         <v>1.38</v>
       </c>
-      <c r="D83" s="76">
+      <c r="D83" s="72">
         <v>1.593</v>
       </c>
-      <c r="E83" s="76">
+      <c r="E83" s="72">
         <v>1.8129999999999999</v>
       </c>
-      <c r="F83" s="76">
+      <c r="F83" s="72">
         <v>0.111</v>
       </c>
-      <c r="G83" s="76">
+      <c r="G83" s="72">
         <v>1.7250000000000001</v>
       </c>
-      <c r="H83" s="73">
+      <c r="H83" s="69">
         <v>34</v>
       </c>
-      <c r="I83" s="73">
-        <v>0</v>
-      </c>
-      <c r="J83" s="73">
+      <c r="I83" s="69">
+        <v>0</v>
+      </c>
+      <c r="J83" s="69">
         <v>0</v>
       </c>
       <c r="K83" s="59" t="str">
-        <f>IF(G83&gt;V5,"ДА","НЕТ")</f>
+        <f t="shared" si="10"/>
         <v>НЕТ</v>
       </c>
       <c r="L83" s="59"/>
       <c r="M83" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="73" t="s">
+      <c r="A84" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="73" t="s">
+      <c r="B84" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="76">
+      <c r="C84" s="72">
         <v>2.4769999999999999</v>
       </c>
-      <c r="D84" s="76">
+      <c r="D84" s="72">
         <v>2.6070000000000002</v>
       </c>
-      <c r="E84" s="76">
+      <c r="E84" s="72">
         <v>2.7759999999999998</v>
       </c>
-      <c r="F84" s="76">
+      <c r="F84" s="72">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G84" s="76">
+      <c r="G84" s="72">
         <v>2.7029999999999998</v>
       </c>
-      <c r="H84" s="73">
+      <c r="H84" s="69">
         <v>143</v>
       </c>
-      <c r="I84" s="73">
-        <v>0</v>
-      </c>
-      <c r="J84" s="73">
+      <c r="I84" s="69">
+        <v>0</v>
+      </c>
+      <c r="J84" s="69">
         <v>0</v>
       </c>
       <c r="K84" s="59" t="str">
-        <f>IF(G84&gt;V6,"ДА","НЕТ")</f>
+        <f t="shared" si="10"/>
         <v>НЕТ</v>
       </c>
       <c r="L84" s="59"/>
       <c r="M84" s="59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f>SUM(H68:H85)</f>
+        <v>4725</v>
+      </c>
+      <c r="R84" s="46"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C85" s="76">
+      <c r="C85" s="72">
         <v>2.3610000000000002</v>
       </c>
-      <c r="D85" s="76">
+      <c r="D85" s="72">
         <v>2.7490000000000001</v>
       </c>
-      <c r="E85" s="76">
+      <c r="E85" s="72">
         <v>3.1629999999999998</v>
       </c>
-      <c r="F85" s="76">
+      <c r="F85" s="72">
         <v>0.184</v>
       </c>
-      <c r="G85" s="76">
+      <c r="G85" s="72">
         <v>3.016</v>
       </c>
-      <c r="H85" s="73">
+      <c r="H85" s="69">
         <v>54</v>
       </c>
-      <c r="I85" s="73">
-        <v>0</v>
-      </c>
-      <c r="J85" s="73">
+      <c r="I85" s="69">
+        <v>0</v>
+      </c>
+      <c r="J85" s="69">
         <v>0</v>
       </c>
       <c r="K85" s="59" t="str">
-        <f>IF(G85&gt;V7,"ДА","НЕТ")</f>
+        <f t="shared" si="10"/>
         <v>НЕТ</v>
       </c>
       <c r="L85" s="59"/>
       <c r="M85" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8934,91 +8983,94 @@
       <c r="J86" s="66"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
+      <c r="A87" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="72"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
-      <c r="L87" s="72"/>
+      <c r="B87" s="83"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="83"/>
+      <c r="J87" s="83"/>
+      <c r="K87" s="83"/>
+      <c r="L87" s="83"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="73" t="s">
+      <c r="A88" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="73" t="s">
+      <c r="C88" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D88" s="73" t="s">
+      <c r="D88" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E88" s="73" t="s">
+      <c r="E88" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F88" s="73" t="s">
+      <c r="F88" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G88" s="73" t="s">
+      <c r="G88" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="H88" s="73" t="s">
+      <c r="H88" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="73" t="s">
+      <c r="I88" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J88" s="73" t="s">
+      <c r="J88" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K88" s="75" t="s">
+      <c r="K88" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="L88" s="75" t="s">
+      <c r="L88" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="M88" s="75" t="s">
+      <c r="M88" s="71" t="s">
         <v>99</v>
       </c>
+      <c r="O88" s="84" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="73" t="s">
+      <c r="A89" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="73" t="s">
+      <c r="B89" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C89" s="76">
+      <c r="C89" s="72">
         <v>1.4710000000000001</v>
       </c>
-      <c r="D89" s="76">
+      <c r="D89" s="72">
         <v>2.742</v>
       </c>
-      <c r="E89" s="76">
+      <c r="E89" s="72">
         <v>3.855</v>
       </c>
-      <c r="F89" s="76">
+      <c r="F89" s="72">
         <v>0.754</v>
       </c>
-      <c r="G89" s="76">
+      <c r="G89" s="72">
         <v>3.6829999999999998</v>
       </c>
-      <c r="H89" s="73">
+      <c r="H89" s="69">
         <v>870</v>
       </c>
-      <c r="I89" s="73">
+      <c r="I89" s="69">
         <v>3</v>
       </c>
-      <c r="J89" s="73">
+      <c r="J89" s="69">
         <v>0</v>
       </c>
       <c r="K89" s="59"/>
@@ -9038,34 +9090,34 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="73" t="s">
+      <c r="A90" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B90" s="73" t="s">
+      <c r="B90" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="76">
+      <c r="C90" s="72">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D90" s="76">
+      <c r="D90" s="72">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E90" s="76">
+      <c r="E90" s="72">
         <v>0.30599999999999999</v>
       </c>
-      <c r="F90" s="76">
+      <c r="F90" s="72">
         <v>1.6E-2</v>
       </c>
-      <c r="G90" s="76">
+      <c r="G90" s="72">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H90" s="73">
+      <c r="H90" s="69">
         <v>467</v>
       </c>
-      <c r="I90" s="73">
-        <v>0</v>
-      </c>
-      <c r="J90" s="73">
+      <c r="I90" s="69">
+        <v>0</v>
+      </c>
+      <c r="J90" s="69">
         <v>0</v>
       </c>
       <c r="K90" s="59"/>
@@ -9073,8 +9125,8 @@
         <f>VLOOKUP(A90,$Q$90:$T$101,4,FALSE)</f>
         <v>3.9932230510389188E-2</v>
       </c>
-      <c r="M90" s="84">
-        <f t="shared" si="5"/>
+      <c r="M90" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q90" t="s">
@@ -9091,45 +9143,46 @@
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="73" t="s">
+      <c r="A91" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="73" t="s">
+      <c r="B91" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="76">
+      <c r="C91" s="72">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D91" s="76">
+      <c r="D91" s="72">
         <v>0.34699999999999998</v>
       </c>
-      <c r="E91" s="76">
+      <c r="E91" s="72">
         <v>0.39100000000000001</v>
       </c>
-      <c r="F91" s="76">
+      <c r="F91" s="72">
         <v>0.03</v>
       </c>
-      <c r="G91" s="76">
+      <c r="G91" s="72">
         <v>0.38700000000000001</v>
       </c>
-      <c r="H91" s="73">
+      <c r="H91" s="69">
         <v>123</v>
       </c>
-      <c r="I91" s="73">
+      <c r="I91" s="69">
         <v>3</v>
       </c>
-      <c r="J91" s="73">
+      <c r="J91" s="69">
         <v>0</v>
       </c>
       <c r="K91" s="59"/>
       <c r="L91" s="60">
-        <f t="shared" ref="L91:L101" si="7">VLOOKUP(A91,$Q$90:$T$101,4,FALSE)</f>
+        <f t="shared" ref="L91:L101" si="11">VLOOKUP(A91,$Q$90:$T$101,4,FALSE)</f>
         <v>2.4390243902439046E-2</v>
       </c>
-      <c r="M91" s="84">
-        <f t="shared" si="5"/>
+      <c r="M91" s="76">
+        <f t="shared" si="8"/>
         <v>3.7800000000000002</v>
       </c>
+      <c r="O91" s="46"/>
       <c r="Q91" t="s">
         <v>11</v>
       </c>
@@ -9144,43 +9197,43 @@
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="76">
+      <c r="C92" s="72">
         <v>0.249</v>
       </c>
-      <c r="D92" s="76">
+      <c r="D92" s="72">
         <v>0.27900000000000003</v>
       </c>
-      <c r="E92" s="76">
+      <c r="E92" s="72">
         <v>0.32300000000000001</v>
       </c>
-      <c r="F92" s="76">
+      <c r="F92" s="72">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G92" s="76">
+      <c r="G92" s="72">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H92" s="73">
+      <c r="H92" s="69">
         <v>467</v>
       </c>
-      <c r="I92" s="73">
-        <v>0</v>
-      </c>
-      <c r="J92" s="73">
+      <c r="I92" s="69">
+        <v>0</v>
+      </c>
+      <c r="J92" s="69">
         <v>0</v>
       </c>
       <c r="K92" s="59"/>
       <c r="L92" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.9932230510389188E-2</v>
       </c>
-      <c r="M92" s="84">
-        <f t="shared" si="5"/>
+      <c r="M92" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q92" t="s">
@@ -9197,43 +9250,43 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="73" t="s">
+      <c r="A93" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="73" t="s">
+      <c r="B93" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="76">
+      <c r="C93" s="72">
         <v>0.49399999999999999</v>
       </c>
-      <c r="D93" s="76">
+      <c r="D93" s="72">
         <v>0.56699999999999995</v>
       </c>
-      <c r="E93" s="76">
+      <c r="E93" s="72">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F93" s="76">
+      <c r="F93" s="72">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G93" s="76">
+      <c r="G93" s="72">
         <v>0.61099999999999999</v>
       </c>
-      <c r="H93" s="73">
+      <c r="H93" s="69">
         <v>537</v>
       </c>
-      <c r="I93" s="73">
-        <v>0</v>
-      </c>
-      <c r="J93" s="73">
+      <c r="I93" s="69">
+        <v>0</v>
+      </c>
+      <c r="J93" s="69">
         <v>0</v>
       </c>
       <c r="K93" s="59"/>
       <c r="L93" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.7468262405045758E-2</v>
       </c>
-      <c r="M93" s="84">
-        <f t="shared" si="5"/>
+      <c r="M93" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q93" t="s">
@@ -9250,43 +9303,43 @@
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="73" t="s">
+      <c r="A94" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="73" t="s">
+      <c r="B94" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="76">
+      <c r="C94" s="72">
         <v>0.51200000000000001</v>
       </c>
-      <c r="D94" s="76">
+      <c r="D94" s="72">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E94" s="76">
+      <c r="E94" s="72">
         <v>0.83899999999999997</v>
       </c>
-      <c r="F94" s="76">
+      <c r="F94" s="72">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G94" s="76">
+      <c r="G94" s="72">
         <v>0.67800000000000005</v>
       </c>
-      <c r="H94" s="73">
+      <c r="H94" s="69">
         <v>483</v>
       </c>
-      <c r="I94" s="73">
-        <v>0</v>
-      </c>
-      <c r="J94" s="73">
+      <c r="I94" s="69">
+        <v>0</v>
+      </c>
+      <c r="J94" s="69">
         <v>0</v>
       </c>
       <c r="K94" s="59"/>
       <c r="L94" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.7451404430809418E-2</v>
       </c>
-      <c r="M94" s="84">
-        <f t="shared" si="5"/>
+      <c r="M94" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q94" t="s">
@@ -9303,43 +9356,43 @@
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="73" t="s">
+      <c r="A95" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B95" s="73" t="s">
+      <c r="B95" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="76">
+      <c r="C95" s="72">
         <v>0.251</v>
       </c>
-      <c r="D95" s="76">
+      <c r="D95" s="72">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E95" s="76">
+      <c r="E95" s="72">
         <v>0.36299999999999999</v>
       </c>
-      <c r="F95" s="76">
+      <c r="F95" s="72">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G95" s="76">
+      <c r="G95" s="72">
         <v>0.31900000000000001</v>
       </c>
-      <c r="H95" s="73">
+      <c r="H95" s="69">
         <v>171</v>
       </c>
-      <c r="I95" s="73">
-        <v>0</v>
-      </c>
-      <c r="J95" s="73">
+      <c r="I95" s="69">
+        <v>0</v>
+      </c>
+      <c r="J95" s="69">
         <v>0</v>
       </c>
       <c r="K95" s="59"/>
       <c r="L95" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.1683262209577863E-2</v>
       </c>
-      <c r="M95" s="84">
-        <f t="shared" si="5"/>
+      <c r="M95" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q95" t="s">
@@ -9356,43 +9409,43 @@
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="73" t="s">
+      <c r="A96" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="73" t="s">
+      <c r="B96" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="76">
+      <c r="C96" s="72">
         <v>0.434</v>
       </c>
-      <c r="D96" s="76">
+      <c r="D96" s="72">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E96" s="76">
+      <c r="E96" s="72">
         <v>0.76400000000000001</v>
       </c>
-      <c r="F96" s="76">
+      <c r="F96" s="72">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G96" s="76">
+      <c r="G96" s="72">
         <v>0.626</v>
       </c>
-      <c r="H96" s="73">
+      <c r="H96" s="69">
         <v>874</v>
       </c>
-      <c r="I96" s="73">
-        <v>0</v>
-      </c>
-      <c r="J96" s="73">
+      <c r="I96" s="69">
+        <v>0</v>
+      </c>
+      <c r="J96" s="69">
         <v>0</v>
       </c>
       <c r="K96" s="59"/>
       <c r="L96" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.6142213672022203E-2</v>
       </c>
-      <c r="M96" s="84">
-        <f t="shared" si="5"/>
+      <c r="M96" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q96" t="s">
@@ -9409,43 +9462,43 @@
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" s="73" t="s">
+      <c r="A97" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="73" t="s">
+      <c r="B97" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="76">
+      <c r="C97" s="72">
         <v>0.47399999999999998</v>
       </c>
-      <c r="D97" s="76">
+      <c r="D97" s="72">
         <v>0.57799999999999996</v>
       </c>
-      <c r="E97" s="76">
+      <c r="E97" s="72">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F97" s="76">
+      <c r="F97" s="72">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G97" s="76">
+      <c r="G97" s="72">
         <v>0.629</v>
       </c>
-      <c r="H97" s="73">
+      <c r="H97" s="69">
         <v>706</v>
       </c>
-      <c r="I97" s="73">
-        <v>0</v>
-      </c>
-      <c r="J97" s="73">
+      <c r="I97" s="69">
+        <v>0</v>
+      </c>
+      <c r="J97" s="69">
         <v>0</v>
       </c>
       <c r="K97" s="59"/>
       <c r="L97" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.88533384015718E-2</v>
       </c>
-      <c r="M97" s="84">
-        <f t="shared" si="5"/>
+      <c r="M97" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q97" t="s">
@@ -9462,43 +9515,43 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="73" t="s">
+      <c r="A98" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="73" t="s">
+      <c r="B98" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="76">
+      <c r="C98" s="72">
         <v>0.46200000000000002</v>
       </c>
-      <c r="D98" s="76">
+      <c r="D98" s="72">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E98" s="76">
+      <c r="E98" s="72">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F98" s="76">
+      <c r="F98" s="72">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G98" s="76">
+      <c r="G98" s="72">
         <v>0.57899999999999996</v>
       </c>
-      <c r="H98" s="73">
+      <c r="H98" s="69">
         <v>577</v>
       </c>
-      <c r="I98" s="73">
-        <v>0</v>
-      </c>
-      <c r="J98" s="73">
+      <c r="I98" s="69">
+        <v>0</v>
+      </c>
+      <c r="J98" s="69">
         <v>0</v>
       </c>
       <c r="K98" s="59"/>
       <c r="L98" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.4177568304176074E-2</v>
       </c>
-      <c r="M98" s="84">
-        <f t="shared" si="5"/>
+      <c r="M98" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q98" t="s">
@@ -9515,43 +9568,43 @@
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="73" t="s">
+      <c r="B99" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="76">
+      <c r="C99" s="72">
         <v>0.23899999999999999</v>
       </c>
-      <c r="D99" s="76">
+      <c r="D99" s="72">
         <v>0.27400000000000002</v>
       </c>
-      <c r="E99" s="76">
+      <c r="E99" s="72">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F99" s="76">
+      <c r="F99" s="72">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G99" s="76">
+      <c r="G99" s="72">
         <v>0.30099999999999999</v>
       </c>
-      <c r="H99" s="73">
+      <c r="H99" s="69">
         <v>290</v>
       </c>
-      <c r="I99" s="73">
-        <v>0</v>
-      </c>
-      <c r="J99" s="73">
+      <c r="I99" s="69">
+        <v>0</v>
+      </c>
+      <c r="J99" s="69">
         <v>0</v>
       </c>
       <c r="K99" s="59"/>
       <c r="L99" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.5092838196286511E-2</v>
       </c>
-      <c r="M99" s="84">
-        <f t="shared" si="5"/>
+      <c r="M99" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q99" t="s">
@@ -9568,43 +9621,43 @@
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="73" t="s">
+      <c r="A100" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B100" s="73" t="s">
+      <c r="B100" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="76">
+      <c r="C100" s="72">
         <v>0.50800000000000001</v>
       </c>
-      <c r="D100" s="76">
+      <c r="D100" s="72">
         <v>0.59499999999999997</v>
       </c>
-      <c r="E100" s="76">
+      <c r="E100" s="72">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F100" s="76">
+      <c r="F100" s="72">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G100" s="76">
+      <c r="G100" s="72">
         <v>0.65</v>
       </c>
-      <c r="H100" s="73">
+      <c r="H100" s="69">
         <v>170</v>
       </c>
-      <c r="I100" s="73">
-        <v>0</v>
-      </c>
-      <c r="J100" s="73">
+      <c r="I100" s="69">
+        <v>0</v>
+      </c>
+      <c r="J100" s="69">
         <v>0</v>
       </c>
       <c r="K100" s="59"/>
       <c r="L100" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.5898251192369983E-3</v>
       </c>
-      <c r="M100" s="84">
-        <f t="shared" si="5"/>
+      <c r="M100" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q100" t="s">
@@ -9621,43 +9674,43 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="73" t="s">
+      <c r="A101" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B101" s="73" t="s">
+      <c r="B101" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="76">
+      <c r="C101" s="72">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D101" s="76">
+      <c r="D101" s="72">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E101" s="76">
+      <c r="E101" s="72">
         <v>0.308</v>
       </c>
-      <c r="F101" s="76">
+      <c r="F101" s="72">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G101" s="76">
+      <c r="G101" s="72">
         <v>0.28199999999999997</v>
       </c>
-      <c r="H101" s="73">
+      <c r="H101" s="69">
         <v>170</v>
       </c>
-      <c r="I101" s="73">
-        <v>0</v>
-      </c>
-      <c r="J101" s="73">
+      <c r="I101" s="69">
+        <v>0</v>
+      </c>
+      <c r="J101" s="69">
         <v>0</v>
       </c>
       <c r="K101" s="59"/>
       <c r="L101" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.610492845786951E-2</v>
       </c>
-      <c r="M101" s="84">
-        <f t="shared" si="5"/>
+      <c r="M101" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q101" t="s">
@@ -9674,248 +9727,252 @@
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="73" t="s">
+      <c r="A102" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="73" t="s">
+      <c r="B102" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C102" s="76">
+      <c r="C102" s="72">
         <v>3.492</v>
       </c>
-      <c r="D102" s="76">
+      <c r="D102" s="72">
         <v>3.6419999999999999</v>
       </c>
-      <c r="E102" s="76">
+      <c r="E102" s="72">
         <v>3.855</v>
       </c>
-      <c r="F102" s="76">
+      <c r="F102" s="72">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="G102" s="76">
+      <c r="G102" s="72">
         <v>3.7559999999999998</v>
       </c>
-      <c r="H102" s="73">
+      <c r="H102" s="69">
         <v>288</v>
       </c>
-      <c r="I102" s="73">
-        <v>0</v>
-      </c>
-      <c r="J102" s="73">
+      <c r="I102" s="69">
+        <v>0</v>
+      </c>
+      <c r="J102" s="69">
         <v>0</v>
       </c>
       <c r="K102" s="59" t="str">
-        <f>IF(G102&gt;V2,"ДА","НЕТ")</f>
+        <f t="shared" ref="K102:K107" si="12">IF(G102&gt;V2,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
       <c r="L102" s="59"/>
-      <c r="M102" s="84">
-        <f t="shared" si="5"/>
+      <c r="M102" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" s="73" t="s">
+      <c r="A103" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C103" s="76">
+      <c r="C103" s="72">
         <v>2.0659999999999998</v>
       </c>
-      <c r="D103" s="76">
+      <c r="D103" s="72">
         <v>2.194</v>
       </c>
-      <c r="E103" s="76">
+      <c r="E103" s="72">
         <v>2.38</v>
       </c>
-      <c r="F103" s="76">
+      <c r="F103" s="72">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G103" s="76">
+      <c r="G103" s="72">
         <v>2.25</v>
       </c>
-      <c r="H103" s="73">
+      <c r="H103" s="69">
         <v>123</v>
       </c>
-      <c r="I103" s="73">
+      <c r="I103" s="69">
         <v>3</v>
       </c>
-      <c r="J103" s="73">
+      <c r="J103" s="69">
         <v>0</v>
       </c>
       <c r="K103" s="59" t="str">
-        <f>IF(G103&gt;V3,"ДА","НЕТ")</f>
+        <f t="shared" si="12"/>
         <v>НЕТ</v>
       </c>
       <c r="L103" s="59"/>
-      <c r="M103" s="84">
-        <f t="shared" si="5"/>
+      <c r="M103" s="76">
+        <f t="shared" si="8"/>
         <v>3.7800000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="73" t="s">
+      <c r="A104" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B104" s="73" t="s">
+      <c r="B104" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="76">
+      <c r="C104" s="72">
         <v>1.577</v>
       </c>
-      <c r="D104" s="76">
+      <c r="D104" s="72">
         <v>1.7470000000000001</v>
       </c>
-      <c r="E104" s="76">
+      <c r="E104" s="72">
         <v>1.911</v>
       </c>
-      <c r="F104" s="76">
+      <c r="F104" s="72">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G104" s="76">
+      <c r="G104" s="72">
         <v>1.8280000000000001</v>
       </c>
-      <c r="H104" s="73">
+      <c r="H104" s="69">
         <v>170</v>
       </c>
-      <c r="I104" s="73">
-        <v>0</v>
-      </c>
-      <c r="J104" s="73">
+      <c r="I104" s="69">
+        <v>0</v>
+      </c>
+      <c r="J104" s="69">
         <v>0</v>
       </c>
       <c r="K104" s="59" t="str">
-        <f>IF(G104&gt;V4,"ДА","НЕТ")</f>
+        <f t="shared" si="12"/>
         <v>НЕТ</v>
       </c>
       <c r="L104" s="59"/>
-      <c r="M104" s="84">
-        <f t="shared" si="5"/>
+      <c r="M104" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="73" t="s">
+      <c r="A105" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="76">
+      <c r="C105" s="72">
         <v>1.4710000000000001</v>
       </c>
-      <c r="D105" s="76">
+      <c r="D105" s="72">
         <v>1.7090000000000001</v>
       </c>
-      <c r="E105" s="76">
+      <c r="E105" s="72">
         <v>1.9490000000000001</v>
       </c>
-      <c r="F105" s="76">
+      <c r="F105" s="72">
         <v>0.112</v>
       </c>
-      <c r="G105" s="76">
+      <c r="G105" s="72">
         <v>1.8169999999999999</v>
       </c>
-      <c r="H105" s="73">
+      <c r="H105" s="69">
         <v>42</v>
       </c>
-      <c r="I105" s="73">
-        <v>0</v>
-      </c>
-      <c r="J105" s="73">
+      <c r="I105" s="69">
+        <v>0</v>
+      </c>
+      <c r="J105" s="69">
         <v>0</v>
       </c>
       <c r="K105" s="59" t="str">
-        <f>IF(G105&gt;V5,"ДА","НЕТ")</f>
+        <f t="shared" si="12"/>
         <v>НЕТ</v>
       </c>
       <c r="L105" s="59"/>
-      <c r="M105" s="84">
-        <f t="shared" si="5"/>
+      <c r="M105" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" s="73" t="s">
+      <c r="A106" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B106" s="73" t="s">
+      <c r="B106" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C106" s="76">
+      <c r="C106" s="72">
         <v>2.6320000000000001</v>
       </c>
-      <c r="D106" s="76">
+      <c r="D106" s="72">
         <v>2.7719999999999998</v>
       </c>
-      <c r="E106" s="76">
+      <c r="E106" s="72">
         <v>2.9489999999999998</v>
       </c>
-      <c r="F106" s="76">
+      <c r="F106" s="72">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="G106" s="76">
+      <c r="G106" s="72">
         <v>2.8969999999999998</v>
       </c>
-      <c r="H106" s="73">
+      <c r="H106" s="69">
         <v>179</v>
       </c>
-      <c r="I106" s="73">
-        <v>0</v>
-      </c>
-      <c r="J106" s="73">
+      <c r="I106" s="69">
+        <v>0</v>
+      </c>
+      <c r="J106" s="69">
         <v>0</v>
       </c>
       <c r="K106" s="59" t="str">
-        <f>IF(G106&gt;V6,"ДА","НЕТ")</f>
+        <f t="shared" si="12"/>
         <v>НЕТ</v>
       </c>
       <c r="L106" s="59"/>
-      <c r="M106" s="84">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="M106" s="76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <f>SUM(H90:H107)</f>
+        <v>5905</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="73" t="s">
+      <c r="A107" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="73" t="s">
+      <c r="B107" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C107" s="76">
+      <c r="C107" s="72">
         <v>2.7120000000000002</v>
       </c>
-      <c r="D107" s="76">
+      <c r="D107" s="72">
         <v>2.9660000000000002</v>
       </c>
-      <c r="E107" s="76">
+      <c r="E107" s="72">
         <v>3.2519999999999998</v>
       </c>
-      <c r="F107" s="76">
+      <c r="F107" s="72">
         <v>0.155</v>
       </c>
-      <c r="G107" s="76">
+      <c r="G107" s="72">
         <v>3.2149999999999999</v>
       </c>
-      <c r="H107" s="73">
+      <c r="H107" s="69">
         <v>68</v>
       </c>
-      <c r="I107" s="73">
-        <v>0</v>
-      </c>
-      <c r="J107" s="73">
+      <c r="I107" s="69">
+        <v>0</v>
+      </c>
+      <c r="J107" s="69">
         <v>0</v>
       </c>
       <c r="K107" s="59" t="str">
-        <f>IF(G107&gt;V7,"ДА","НЕТ")</f>
+        <f t="shared" si="12"/>
         <v>НЕТ</v>
       </c>
       <c r="L107" s="59"/>
-      <c r="M107" s="84">
-        <f t="shared" si="5"/>
+      <c r="M107" s="76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9930,6 +9987,299 @@
       <c r="H108" s="67"/>
       <c r="I108" s="67"/>
       <c r="J108" s="67"/>
+    </row>
+    <row r="121" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N121">
+        <v>2944</v>
+      </c>
+      <c r="O121">
+        <v>11739</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q122" s="46">
+        <f>O121/N121</f>
+        <v>3.9874320652173911</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>666.9373642005221</v>
+      </c>
+      <c r="B131">
+        <v>699</v>
+      </c>
+      <c r="C131" s="46">
+        <v>4.5869292989238808E-2</v>
+      </c>
+      <c r="I131" s="6">
+        <f>A131*3</f>
+        <v>2000.8120926015663</v>
+      </c>
+      <c r="J131">
+        <f>B131*3</f>
+        <v>2097</v>
+      </c>
+      <c r="K131" s="46">
+        <f>1-I131/J131</f>
+        <v>4.5869292989238808E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>537.2076344707923</v>
+      </c>
+      <c r="B132">
+        <v>562</v>
+      </c>
+      <c r="C132" s="46">
+        <v>4.4114529411401593E-2</v>
+      </c>
+      <c r="I132" s="6">
+        <f t="shared" ref="I132:I142" si="13">A132*3</f>
+        <v>1611.6229034123769</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:J142" si="14">B132*3</f>
+        <v>1686</v>
+      </c>
+      <c r="K132" s="46">
+        <f t="shared" ref="K132:K142" si="15">1-I132/J132</f>
+        <v>4.4114529411401593E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>409.20763447079236</v>
+      </c>
+      <c r="B133">
+        <v>428</v>
+      </c>
+      <c r="C133" s="46">
+        <v>4.3907396096279583E-2</v>
+      </c>
+      <c r="I133" s="6">
+        <f t="shared" si="13"/>
+        <v>1227.6229034123771</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="14"/>
+        <v>1284</v>
+      </c>
+      <c r="K133" s="46">
+        <f t="shared" si="15"/>
+        <v>4.3907396096279472E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>358.6813186813186</v>
+      </c>
+      <c r="B134">
+        <v>375</v>
+      </c>
+      <c r="C134" s="46">
+        <v>4.3516483516483739E-2</v>
+      </c>
+      <c r="I134" s="6">
+        <f t="shared" si="13"/>
+        <v>1076.0439560439559</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="14"/>
+        <v>1125</v>
+      </c>
+      <c r="K134" s="46">
+        <f t="shared" si="15"/>
+        <v>4.3516483516483628E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>358.6813186813186</v>
+      </c>
+      <c r="B135">
+        <v>375</v>
+      </c>
+      <c r="C135" s="46">
+        <v>4.3516483516483739E-2</v>
+      </c>
+      <c r="I135" s="6">
+        <f t="shared" si="13"/>
+        <v>1076.0439560439559</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="14"/>
+        <v>1125</v>
+      </c>
+      <c r="K135" s="46">
+        <f t="shared" si="15"/>
+        <v>4.3516483516483628E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>221.53846153846155</v>
+      </c>
+      <c r="B136">
+        <v>232</v>
+      </c>
+      <c r="C136" s="46">
+        <v>4.50928381962864E-2</v>
+      </c>
+      <c r="I136" s="6">
+        <f t="shared" si="13"/>
+        <v>664.61538461538464</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="14"/>
+        <v>696</v>
+      </c>
+      <c r="K136" s="46">
+        <f t="shared" si="15"/>
+        <v>4.50928381962864E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>368.06477732793525</v>
+      </c>
+      <c r="B137">
+        <v>388</v>
+      </c>
+      <c r="C137" s="46">
+        <v>5.1379439876455546E-2</v>
+      </c>
+      <c r="I137" s="6">
+        <f t="shared" si="13"/>
+        <v>1104.1943319838058</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="14"/>
+        <v>1164</v>
+      </c>
+      <c r="K137" s="46">
+        <f t="shared" si="15"/>
+        <v>5.1379439876455546E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>96</v>
+      </c>
+      <c r="B138">
+        <v>99</v>
+      </c>
+      <c r="C138" s="46">
+        <v>3.0303030303030276E-2</v>
+      </c>
+      <c r="I138" s="6">
+        <f t="shared" si="13"/>
+        <v>288</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="14"/>
+        <v>297</v>
+      </c>
+      <c r="K138" s="46">
+        <f t="shared" si="15"/>
+        <v>3.0303030303030276E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>441.20763447079236</v>
+      </c>
+      <c r="B139">
+        <v>462</v>
+      </c>
+      <c r="C139" s="46">
+        <v>4.5005120193090109E-2</v>
+      </c>
+      <c r="I139" s="6">
+        <f t="shared" si="13"/>
+        <v>1323.6229034123771</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="14"/>
+        <v>1386</v>
+      </c>
+      <c r="K139" s="46">
+        <f t="shared" si="15"/>
+        <v>4.5005120193090109E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>129.72972972972974</v>
+      </c>
+      <c r="B140">
+        <v>136</v>
+      </c>
+      <c r="C140" s="46">
+        <v>4.610492845786951E-2</v>
+      </c>
+      <c r="I140" s="6">
+        <f t="shared" si="13"/>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="14"/>
+        <v>408</v>
+      </c>
+      <c r="K140" s="46">
+        <f t="shared" si="15"/>
+        <v>4.610492845786951E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>129.72972972972974</v>
+      </c>
+      <c r="B141">
+        <v>136</v>
+      </c>
+      <c r="C141" s="46">
+        <v>4.610492845786951E-2</v>
+      </c>
+      <c r="I141" s="6">
+        <f t="shared" si="13"/>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="14"/>
+        <v>408</v>
+      </c>
+      <c r="K141" s="46">
+        <f t="shared" si="15"/>
+        <v>4.610492845786951E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>136.21621621621622</v>
+      </c>
+      <c r="B142">
+        <v>136</v>
+      </c>
+      <c r="C142" s="46">
+        <v>-1.5898251192369983E-3</v>
+      </c>
+      <c r="I142" s="6">
+        <f t="shared" si="13"/>
+        <v>408.64864864864865</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="14"/>
+        <v>408</v>
+      </c>
+      <c r="K142" s="46">
+        <f t="shared" si="15"/>
+        <v>-1.5898251192367763E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9945,6 +10295,758 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="59">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D2" s="59">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E2" s="59">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F2" s="59">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G2" s="59">
+        <v>0.31</v>
+      </c>
+      <c r="H2" s="59">
+        <v>1093</v>
+      </c>
+      <c r="I2" s="59">
+        <v>0</v>
+      </c>
+      <c r="J2" s="59">
+        <v>0</v>
+      </c>
+      <c r="K2" s="60">
+        <v>1.5513306455667064E-2</v>
+      </c>
+      <c r="L2" s="76">
+        <f>((H2+I2+J2)/100)*I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="59">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D3" s="59">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E3" s="59">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F3" s="59">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G3" s="59">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H3" s="59">
+        <v>291</v>
+      </c>
+      <c r="I3" s="59">
+        <v>1</v>
+      </c>
+      <c r="J3" s="59">
+        <v>0</v>
+      </c>
+      <c r="K3" s="60">
+        <v>1.0309278350515427E-2</v>
+      </c>
+      <c r="L3" s="76">
+        <f t="shared" ref="L3:L19" si="0">((H3+I3+J3)/100)*I3</f>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="59">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D4" s="59">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F4" s="59">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G4" s="59">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="H4" s="59">
+        <v>1093</v>
+      </c>
+      <c r="I4" s="59">
+        <v>0</v>
+      </c>
+      <c r="J4" s="59">
+        <v>0</v>
+      </c>
+      <c r="K4" s="60">
+        <v>1.5513306455667064E-2</v>
+      </c>
+      <c r="L4" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="F5" s="59">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G5" s="59">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="H5" s="59">
+        <v>1248</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0</v>
+      </c>
+      <c r="J5" s="59">
+        <v>0</v>
+      </c>
+      <c r="K5" s="60">
+        <v>1.6327801752902937E-2</v>
+      </c>
+      <c r="L5" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="59">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E6" s="59">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="F6" s="59">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H6" s="59">
+        <v>1123</v>
+      </c>
+      <c r="I6" s="59">
+        <v>0</v>
+      </c>
+      <c r="J6" s="59">
+        <v>0</v>
+      </c>
+      <c r="K6" s="60">
+        <v>1.6745919871944959E-2</v>
+      </c>
+      <c r="L6" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="59">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F7" s="59">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0.315</v>
+      </c>
+      <c r="H7" s="59">
+        <v>400</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0</v>
+      </c>
+      <c r="J7" s="59">
+        <v>0</v>
+      </c>
+      <c r="K7" s="60">
+        <v>2.7027027027026973E-2</v>
+      </c>
+      <c r="L7" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="59">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E8" s="59">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="F8" s="59">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G8" s="59">
+        <v>0.65</v>
+      </c>
+      <c r="H8" s="59">
+        <v>2037</v>
+      </c>
+      <c r="I8" s="59">
+        <v>0</v>
+      </c>
+      <c r="J8" s="59">
+        <v>0</v>
+      </c>
+      <c r="K8" s="60">
+        <v>1.7765295728244368E-2</v>
+      </c>
+      <c r="L8" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="59">
+        <v>0.438</v>
+      </c>
+      <c r="D9" s="59">
+        <v>0.627</v>
+      </c>
+      <c r="E9" s="59">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="F9" s="59">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G9" s="59">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="H9" s="59">
+        <v>1635</v>
+      </c>
+      <c r="I9" s="59">
+        <v>0</v>
+      </c>
+      <c r="J9" s="59">
+        <v>0</v>
+      </c>
+      <c r="K9" s="60">
+        <v>1.4297918402215948E-2</v>
+      </c>
+      <c r="L9" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="59">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D10" s="59">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0.78</v>
+      </c>
+      <c r="F10" s="59">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G10" s="59">
+        <v>0.622</v>
+      </c>
+      <c r="H10" s="59">
+        <v>1343</v>
+      </c>
+      <c r="I10" s="59">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+      <c r="K10" s="60">
+        <v>1.442821786122328E-2</v>
+      </c>
+      <c r="L10" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="59">
+        <v>0.26</v>
+      </c>
+      <c r="D11" s="59">
+        <v>0.308</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F11" s="59">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G11" s="59">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="H11" s="59">
+        <v>676</v>
+      </c>
+      <c r="I11" s="59">
+        <v>0</v>
+      </c>
+      <c r="J11" s="59">
+        <v>0</v>
+      </c>
+      <c r="K11" s="60">
+        <v>1.6841147018661795E-2</v>
+      </c>
+      <c r="L11" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="59">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="F12" s="59">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G12" s="59">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="H12" s="59">
+        <v>400</v>
+      </c>
+      <c r="I12" s="59">
+        <v>0</v>
+      </c>
+      <c r="J12" s="59">
+        <v>0</v>
+      </c>
+      <c r="K12" s="60">
+        <v>-2.1621621621621623E-2</v>
+      </c>
+      <c r="L12" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="59">
+        <v>0.214</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F13" s="59">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G13" s="59">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H13" s="59">
+        <v>400</v>
+      </c>
+      <c r="I13" s="59">
+        <v>0</v>
+      </c>
+      <c r="J13" s="59">
+        <v>0</v>
+      </c>
+      <c r="K13" s="60">
+        <v>2.7027027027026973E-2</v>
+      </c>
+      <c r="L13" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="59">
+        <v>3.56</v>
+      </c>
+      <c r="D14" s="59">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="E14" s="59">
+        <v>4.9240000000000004</v>
+      </c>
+      <c r="F14" s="59">
+        <v>0.193</v>
+      </c>
+      <c r="G14" s="59">
+        <v>3.9729999999999999</v>
+      </c>
+      <c r="H14" s="59">
+        <v>675</v>
+      </c>
+      <c r="I14" s="59">
+        <v>0</v>
+      </c>
+      <c r="J14" s="59">
+        <v>0</v>
+      </c>
+      <c r="K14" s="59"/>
+      <c r="L14" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="59">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="D15" s="59">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="E15" s="59">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="F15" s="59">
+        <v>0.311</v>
+      </c>
+      <c r="G15" s="59">
+        <v>2.9729999999999999</v>
+      </c>
+      <c r="H15" s="59">
+        <v>291</v>
+      </c>
+      <c r="I15" s="59">
+        <v>1</v>
+      </c>
+      <c r="J15" s="59">
+        <v>0</v>
+      </c>
+      <c r="K15" s="59"/>
+      <c r="L15" s="76">
+        <f t="shared" si="0"/>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="59">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="D16" s="59">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="E16" s="59">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="F16" s="59">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G16" s="59">
+        <v>1.802</v>
+      </c>
+      <c r="H16" s="59">
+        <v>400</v>
+      </c>
+      <c r="I16" s="59">
+        <v>0</v>
+      </c>
+      <c r="J16" s="59">
+        <v>0</v>
+      </c>
+      <c r="K16" s="59"/>
+      <c r="L16" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="59">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="D17" s="59">
+        <v>1.9</v>
+      </c>
+      <c r="E17" s="59">
+        <v>2.2530000000000001</v>
+      </c>
+      <c r="F17" s="59">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G17" s="59">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="H17" s="59">
+        <v>96</v>
+      </c>
+      <c r="I17" s="59">
+        <v>0</v>
+      </c>
+      <c r="J17" s="59">
+        <v>0</v>
+      </c>
+      <c r="K17" s="59"/>
+      <c r="L17" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="59">
+        <v>2.6760000000000002</v>
+      </c>
+      <c r="D18" s="59">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="E18" s="59">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="F18" s="59">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G18" s="59">
+        <v>3.093</v>
+      </c>
+      <c r="H18" s="59">
+        <v>418</v>
+      </c>
+      <c r="I18" s="59">
+        <v>0</v>
+      </c>
+      <c r="J18" s="59">
+        <v>0</v>
+      </c>
+      <c r="K18" s="59"/>
+      <c r="L18" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="59">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="D19" s="59">
+        <v>2.98</v>
+      </c>
+      <c r="E19" s="59">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="F19" s="59">
+        <v>0.183</v>
+      </c>
+      <c r="G19" s="59">
+        <v>3.1709999999999998</v>
+      </c>
+      <c r="H19" s="59">
+        <v>154</v>
+      </c>
+      <c r="I19" s="59">
+        <v>0</v>
+      </c>
+      <c r="J19" s="59">
+        <v>0</v>
+      </c>
+      <c r="K19" s="59"/>
+      <c r="L19" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -10079,12 +11181,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10094,645 +11196,625 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="85" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="73" t="s">
+      <c r="A2" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="76">
-        <v>1.28</v>
-      </c>
-      <c r="D2" s="76">
-        <v>2.38</v>
-      </c>
-      <c r="E2" s="76">
-        <v>3.536</v>
-      </c>
-      <c r="F2" s="76">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="G2" s="76">
-        <v>3.238</v>
-      </c>
-      <c r="H2" s="73">
-        <v>174</v>
-      </c>
-      <c r="I2" s="73">
-        <v>0</v>
-      </c>
-      <c r="J2" s="73">
+      <c r="C2" s="85">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D2" s="85">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E2" s="85">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F2" s="85">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G2" s="85">
+        <v>0.31</v>
+      </c>
+      <c r="H2" s="85">
+        <v>1093</v>
+      </c>
+      <c r="I2" s="85">
+        <v>0</v>
+      </c>
+      <c r="J2" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="76">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="D3" s="76">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="E3" s="76">
-        <v>0.32</v>
-      </c>
-      <c r="F3" s="76">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G3" s="76">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="H3" s="73">
-        <v>94</v>
-      </c>
-      <c r="I3" s="73">
-        <v>0</v>
-      </c>
-      <c r="J3" s="73">
+      <c r="A3" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="85">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D3" s="85">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E3" s="85">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F3" s="85">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G3" s="85">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H3" s="85">
+        <v>291</v>
+      </c>
+      <c r="I3" s="85">
+        <v>1</v>
+      </c>
+      <c r="J3" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="76">
-        <v>0.222</v>
-      </c>
-      <c r="D4" s="76">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="E4" s="76">
-        <v>0.498</v>
-      </c>
-      <c r="F4" s="76">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="G4" s="76">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="H4" s="73">
-        <v>25</v>
-      </c>
-      <c r="I4" s="73">
-        <v>0</v>
-      </c>
-      <c r="J4" s="73">
+      <c r="A4" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="85">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D4" s="85">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E4" s="85">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F4" s="85">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G4" s="85">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="H4" s="85">
+        <v>1093</v>
+      </c>
+      <c r="I4" s="85">
+        <v>0</v>
+      </c>
+      <c r="J4" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="76">
-        <v>0.21</v>
-      </c>
-      <c r="D5" s="76">
-        <v>0.246</v>
-      </c>
-      <c r="E5" s="76">
-        <v>0.378</v>
-      </c>
-      <c r="F5" s="76">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G5" s="76">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="H5" s="73">
-        <v>94</v>
-      </c>
-      <c r="I5" s="73">
-        <v>0</v>
-      </c>
-      <c r="J5" s="73">
+      <c r="A5" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="85">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D5" s="85">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E5" s="85">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="F5" s="85">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G5" s="85">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="H5" s="85">
+        <v>1248</v>
+      </c>
+      <c r="I5" s="85">
+        <v>0</v>
+      </c>
+      <c r="J5" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="76">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="D6" s="76">
-        <v>0.495</v>
-      </c>
-      <c r="E6" s="76">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="F6" s="76">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G6" s="76">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="H6" s="73">
-        <v>106</v>
-      </c>
-      <c r="I6" s="73">
-        <v>0</v>
-      </c>
-      <c r="J6" s="73">
+      <c r="A6" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="85">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="D6" s="85">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E6" s="85">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="F6" s="85">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G6" s="85">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H6" s="85">
+        <v>1123</v>
+      </c>
+      <c r="I6" s="85">
+        <v>0</v>
+      </c>
+      <c r="J6" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="76">
-        <v>0.433</v>
-      </c>
-      <c r="D7" s="76">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="E7" s="76">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="F7" s="76">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G7" s="76">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="H7" s="73">
-        <v>95</v>
-      </c>
-      <c r="I7" s="73">
-        <v>0</v>
-      </c>
-      <c r="J7" s="73">
+      <c r="A7" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="85">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D7" s="85">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E7" s="85">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F7" s="85">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G7" s="85">
+        <v>0.315</v>
+      </c>
+      <c r="H7" s="85">
+        <v>400</v>
+      </c>
+      <c r="I7" s="85">
+        <v>0</v>
+      </c>
+      <c r="J7" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="76">
-        <v>0.218</v>
-      </c>
-      <c r="D8" s="76">
-        <v>0.245</v>
-      </c>
-      <c r="E8" s="76">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="F8" s="76">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G8" s="76">
-        <v>0.32</v>
-      </c>
-      <c r="H8" s="73">
-        <v>34</v>
-      </c>
-      <c r="I8" s="73">
-        <v>0</v>
-      </c>
-      <c r="J8" s="73">
+      <c r="A8" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="85">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D8" s="85">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E8" s="85">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="F8" s="85">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G8" s="85">
+        <v>0.65</v>
+      </c>
+      <c r="H8" s="85">
+        <v>2037</v>
+      </c>
+      <c r="I8" s="85">
+        <v>0</v>
+      </c>
+      <c r="J8" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="76">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="D9" s="76">
-        <v>0.504</v>
-      </c>
-      <c r="E9" s="76">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="F9" s="76">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G9" s="76">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="H9" s="73">
-        <v>174</v>
-      </c>
-      <c r="I9" s="73">
-        <v>0</v>
-      </c>
-      <c r="J9" s="73">
+      <c r="A9" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="85">
+        <v>0.438</v>
+      </c>
+      <c r="D9" s="85">
+        <v>0.627</v>
+      </c>
+      <c r="E9" s="85">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="F9" s="85">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G9" s="85">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="H9" s="85">
+        <v>1635</v>
+      </c>
+      <c r="I9" s="85">
+        <v>0</v>
+      </c>
+      <c r="J9" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="76">
-        <v>0.437</v>
-      </c>
-      <c r="D10" s="76">
-        <v>0.52</v>
-      </c>
-      <c r="E10" s="76">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="F10" s="76">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G10" s="76">
-        <v>0.61</v>
-      </c>
-      <c r="H10" s="73">
-        <v>139</v>
-      </c>
-      <c r="I10" s="73">
-        <v>0</v>
-      </c>
-      <c r="J10" s="73">
+      <c r="A10" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="85">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D10" s="85">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E10" s="85">
+        <v>0.78</v>
+      </c>
+      <c r="F10" s="85">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G10" s="85">
+        <v>0.622</v>
+      </c>
+      <c r="H10" s="85">
+        <v>1343</v>
+      </c>
+      <c r="I10" s="85">
+        <v>0</v>
+      </c>
+      <c r="J10" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="76">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D11" s="76">
-        <v>0.48</v>
-      </c>
-      <c r="E11" s="76">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="F11" s="76">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G11" s="76">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H11" s="73">
-        <v>115</v>
-      </c>
-      <c r="I11" s="73">
-        <v>0</v>
-      </c>
-      <c r="J11" s="73">
+      <c r="A11" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="85">
+        <v>0.26</v>
+      </c>
+      <c r="D11" s="85">
+        <v>0.308</v>
+      </c>
+      <c r="E11" s="85">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F11" s="85">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G11" s="85">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="H11" s="85">
+        <v>676</v>
+      </c>
+      <c r="I11" s="85">
+        <v>0</v>
+      </c>
+      <c r="J11" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="76">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="D12" s="76">
-        <v>0.245</v>
-      </c>
-      <c r="E12" s="76">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="F12" s="76">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G12" s="76">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="H12" s="73">
-        <v>58</v>
-      </c>
-      <c r="I12" s="73">
-        <v>0</v>
-      </c>
-      <c r="J12" s="73">
+      <c r="A12" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="85">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="D12" s="85">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="E12" s="85">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="F12" s="85">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G12" s="85">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="H12" s="85">
+        <v>400</v>
+      </c>
+      <c r="I12" s="85">
+        <v>0</v>
+      </c>
+      <c r="J12" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="76">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="D13" s="76">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="E13" s="76">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="F13" s="76">
-        <v>0.06</v>
-      </c>
-      <c r="G13" s="76">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="H13" s="73">
-        <v>34</v>
-      </c>
-      <c r="I13" s="73">
-        <v>0</v>
-      </c>
-      <c r="J13" s="73">
+      <c r="A13" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="85">
+        <v>0.214</v>
+      </c>
+      <c r="D13" s="85">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E13" s="85">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F13" s="85">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G13" s="85">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H13" s="85">
+        <v>400</v>
+      </c>
+      <c r="I13" s="85">
+        <v>0</v>
+      </c>
+      <c r="J13" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="76">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="D14" s="76">
-        <v>0.223</v>
-      </c>
-      <c r="E14" s="76">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="F14" s="76">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G14" s="76">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="H14" s="73">
-        <v>34</v>
-      </c>
-      <c r="I14" s="73">
-        <v>0</v>
-      </c>
-      <c r="J14" s="73">
+      <c r="A14" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="85">
+        <v>3.56</v>
+      </c>
+      <c r="D14" s="85">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="E14" s="85">
+        <v>4.9240000000000004</v>
+      </c>
+      <c r="F14" s="85">
+        <v>0.193</v>
+      </c>
+      <c r="G14" s="85">
+        <v>3.9729999999999999</v>
+      </c>
+      <c r="H14" s="85">
+        <v>675</v>
+      </c>
+      <c r="I14" s="85">
+        <v>0</v>
+      </c>
+      <c r="J14" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="73" t="s">
+      <c r="A15" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="76">
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="D15" s="76">
-        <v>3.1720000000000002</v>
-      </c>
-      <c r="E15" s="76">
-        <v>3.536</v>
-      </c>
-      <c r="F15" s="76">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="G15" s="76">
-        <v>3.4089999999999998</v>
-      </c>
-      <c r="H15" s="73">
-        <v>58</v>
-      </c>
-      <c r="I15" s="73">
-        <v>0</v>
-      </c>
-      <c r="J15" s="73">
+      <c r="C15" s="85">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="D15" s="85">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="E15" s="85">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="F15" s="85">
+        <v>0.311</v>
+      </c>
+      <c r="G15" s="85">
+        <v>2.9729999999999999</v>
+      </c>
+      <c r="H15" s="85">
+        <v>291</v>
+      </c>
+      <c r="I15" s="85">
+        <v>1</v>
+      </c>
+      <c r="J15" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="73" t="s">
+      <c r="A16" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="76">
-        <v>1.629</v>
-      </c>
-      <c r="D16" s="76">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="E16" s="76">
-        <v>2.0990000000000002</v>
-      </c>
-      <c r="F16" s="76">
+      <c r="C16" s="85">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="D16" s="85">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="E16" s="85">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="F16" s="85">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G16" s="76">
-        <v>2.0670000000000002</v>
-      </c>
-      <c r="H16" s="73">
-        <v>25</v>
-      </c>
-      <c r="I16" s="73">
-        <v>0</v>
-      </c>
-      <c r="J16" s="73">
+      <c r="G16" s="85">
+        <v>1.802</v>
+      </c>
+      <c r="H16" s="85">
+        <v>400</v>
+      </c>
+      <c r="I16" s="85">
+        <v>0</v>
+      </c>
+      <c r="J16" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="73" t="s">
+      <c r="A17" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="76">
-        <v>1.292</v>
-      </c>
-      <c r="D17" s="76">
-        <v>1.444</v>
-      </c>
-      <c r="E17" s="76">
-        <v>1.8859999999999999</v>
-      </c>
-      <c r="F17" s="76">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="G17" s="76">
-        <v>1.665</v>
-      </c>
-      <c r="H17" s="73">
-        <v>34</v>
-      </c>
-      <c r="I17" s="73">
-        <v>0</v>
-      </c>
-      <c r="J17" s="73">
+      <c r="C17" s="85">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="D17" s="85">
+        <v>1.9</v>
+      </c>
+      <c r="E17" s="85">
+        <v>2.2530000000000001</v>
+      </c>
+      <c r="F17" s="85">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G17" s="85">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="H17" s="85">
+        <v>96</v>
+      </c>
+      <c r="I17" s="85">
+        <v>0</v>
+      </c>
+      <c r="J17" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="73" t="s">
+      <c r="A18" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="76">
-        <v>1.28</v>
-      </c>
-      <c r="D18" s="76">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="E18" s="76">
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="F18" s="76">
-        <v>0.114</v>
-      </c>
-      <c r="G18" s="76">
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="H18" s="73">
-        <v>8</v>
-      </c>
-      <c r="I18" s="73">
-        <v>0</v>
-      </c>
-      <c r="J18" s="73">
+      <c r="C18" s="85">
+        <v>2.6760000000000002</v>
+      </c>
+      <c r="D18" s="85">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="E18" s="85">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="F18" s="85">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G18" s="85">
+        <v>3.093</v>
+      </c>
+      <c r="H18" s="85">
+        <v>418</v>
+      </c>
+      <c r="I18" s="85">
+        <v>0</v>
+      </c>
+      <c r="J18" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="76">
-        <v>2.2349999999999999</v>
-      </c>
-      <c r="D19" s="76">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="E19" s="76">
-        <v>2.806</v>
-      </c>
-      <c r="F19" s="76">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G19" s="76">
-        <v>2.722</v>
-      </c>
-      <c r="H19" s="73">
-        <v>36</v>
-      </c>
-      <c r="I19" s="73">
-        <v>0</v>
-      </c>
-      <c r="J19" s="73">
+      <c r="C19" s="85">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="D19" s="85">
+        <v>2.98</v>
+      </c>
+      <c r="E19" s="85">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="F19" s="85">
+        <v>0.183</v>
+      </c>
+      <c r="G19" s="85">
+        <v>3.1709999999999998</v>
+      </c>
+      <c r="H19" s="85">
+        <v>154</v>
+      </c>
+      <c r="I19" s="85">
+        <v>0</v>
+      </c>
+      <c r="J19" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="76">
-        <v>2.2229999999999999</v>
-      </c>
-      <c r="D20" s="76">
-        <v>2.4689999999999999</v>
-      </c>
-      <c r="E20" s="76">
-        <v>2.794</v>
-      </c>
-      <c r="F20" s="76">
-        <v>0.185</v>
-      </c>
-      <c r="G20" s="76">
-        <v>2.74</v>
-      </c>
-      <c r="H20" s="73">
-        <v>13</v>
-      </c>
-      <c r="I20" s="73">
-        <v>0</v>
-      </c>
-      <c r="J20" s="73">
-        <v>0</v>
-      </c>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
@@ -10742,7 +11824,10 @@
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
       <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="H21" s="67">
+        <f>SUM(H2:H13)</f>
+        <v>11739</v>
+      </c>
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
     </row>
